--- a/src/syria_under_reporting/death_sheet.xlsx
+++ b/src/syria_under_reporting/death_sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t xml:space="preserve">Deir Ezzor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hama</t>
   </si>
   <si>
     <t xml:space="preserve">CheckSum</t>
@@ -346,12 +349,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -398,140 +401,153 @@
       <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="n">
-        <v>44059</v>
-      </c>
-      <c r="B2" s="8" t="n">
-        <v>64</v>
-      </c>
-      <c r="C2" s="9" t="n">
-        <f aca="false">B2-B3</f>
+        <v>44060</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5"/>
+      <c r="D2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="5" t="n">
-        <f aca="false">IF(SUM(D2:K2)=C2,1,0)</f>
-        <v>1</v>
-      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="5" t="n">
+        <f aca="false">IF(SUM(D2:L2)=C2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="n">
-        <v>44058</v>
+        <v>44059</v>
       </c>
       <c r="B3" s="8" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C3" s="9" t="n">
         <f aca="false">B3-B4</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="G3" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5" t="n">
-        <f aca="false">IF(SUM(D3:K3)=C3,1,0)</f>
+      <c r="I3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5" t="n">
+        <f aca="false">IF(SUM(D3:L3)=C3,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="n">
-        <v>44057</v>
+        <v>44058</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4" s="9" t="n">
         <f aca="false">B4-B5</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="J4" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" s="5"/>
-      <c r="L4" s="5" t="n">
-        <f aca="false">IF(SUM(D4:K4)=C4,1,0)</f>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5" t="n">
+        <f aca="false">IF(SUM(D4:L4)=C4,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="n">
-        <v>44056</v>
+        <v>44057</v>
       </c>
       <c r="B5" s="8" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C5" s="9" t="n">
         <f aca="false">B5-B6</f>
-        <v>2</v>
-      </c>
-      <c r="D5" s="10"/>
+        <v>3</v>
+      </c>
+      <c r="D5" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="E5" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="5" t="n">
-        <f aca="false">IF(SUM(D5:K5)=C5,1,0)</f>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5" t="n">
+        <f aca="false">IF(SUM(D5:L5)=C5,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="n">
-        <v>44054</v>
+        <v>44056</v>
       </c>
       <c r="B6" s="8" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C6" s="9" t="n">
         <f aca="false">B6-B7</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -539,37 +555,45 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="5" t="n">
-        <f aca="false">IF(SUM(D6:K6)=C6,1,0)</f>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5" t="n">
+        <f aca="false">IF(SUM(D6:L6)=C6,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="n">
-        <v>44052</v>
+        <v>44054</v>
       </c>
       <c r="B7" s="8" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" s="9" t="n">
         <f aca="false">B7-B8</f>
-        <v>2</v>
-      </c>
-      <c r="D7" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="L7" s="5" t="n">
-        <f aca="false">IF(SUM(D7:K7)=C7,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5" t="n">
+        <f aca="false">IF(SUM(D7:L7)=C7,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
-        <v>44051</v>
+        <v>44052</v>
       </c>
       <c r="B8" s="8" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C8" s="9" t="n">
         <f aca="false">B8-B9</f>
@@ -578,434 +602,435 @@
       <c r="D8" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="L8" s="5" t="n">
-        <f aca="false">IF(SUM(D8:K8)=C8,1,0)</f>
+      <c r="E8" s="5"/>
+      <c r="M8" s="5" t="n">
+        <f aca="false">IF(SUM(D8:L8)=C8,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="n">
-        <v>44048</v>
+        <v>44051</v>
       </c>
       <c r="B9" s="8" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C9" s="9" t="n">
         <f aca="false">B9-B10</f>
         <v>2</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="F9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <f aca="false">IF(SUM(D9:K9)=C9,1,0)</f>
+      <c r="D9" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <f aca="false">IF(SUM(D9:L9)=C9,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="n">
-        <v>44046</v>
+        <v>44048</v>
       </c>
       <c r="B10" s="8" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10" s="9" t="n">
         <f aca="false">B10-B11</f>
         <v>2</v>
       </c>
       <c r="D10" s="10"/>
-      <c r="E10" s="0" t="n">
+      <c r="F10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L10" s="5" t="n">
-        <f aca="false">IF(SUM(D10:K10)=C10,1,0)</f>
+      <c r="M10" s="5" t="n">
+        <f aca="false">IF(SUM(D10:L10)=C10,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="n">
-        <v>44045</v>
+        <v>44046</v>
       </c>
       <c r="B11" s="8" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C11" s="9" t="n">
         <f aca="false">B11-B12</f>
-        <v>3</v>
-      </c>
-      <c r="D11" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <f aca="false">IF(SUM(D11:K11)=C11,1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <f aca="false">IF(SUM(D11:L11)=C11,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="n">
-        <v>44042</v>
+        <v>44045</v>
       </c>
       <c r="B12" s="8" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C12" s="9" t="n">
         <f aca="false">B12-B13</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <f aca="false">IF(SUM(D12:K12)=C12,1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <f aca="false">IF(SUM(D12:L12)=C12,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="n">
-        <v>44039</v>
+        <v>44042</v>
       </c>
       <c r="B13" s="8" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="9" t="n">
         <f aca="false">B13-B14</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <f aca="false">IF(SUM(D13:K13)=C13,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <f aca="false">IF(SUM(D13:L13)=C13,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="n">
-        <v>44038</v>
+        <v>44039</v>
       </c>
       <c r="B14" s="8" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" s="9" t="n">
         <f aca="false">B14-B15</f>
         <v>2</v>
       </c>
       <c r="D14" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <f aca="false">IF(SUM(D14:K14)=C14,1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <f aca="false">IF(SUM(D14:L14)=C14,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="n">
-        <v>44037</v>
+        <v>44038</v>
       </c>
       <c r="B15" s="8" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C15" s="9" t="n">
         <f aca="false">B15-B16</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="L15" s="5" t="n">
-        <f aca="false">IF(SUM(D15:K15)=C15,1,0)</f>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <f aca="false">IF(SUM(D15:L15)=C15,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="n">
-        <v>44035</v>
+        <v>44037</v>
       </c>
       <c r="B16" s="8" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="9" t="n">
         <f aca="false">B16-B17</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <f aca="false">IF(SUM(D16:K16)=C16,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <f aca="false">IF(SUM(D16:L16)=C16,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="n">
-        <v>44034</v>
+        <v>44035</v>
       </c>
       <c r="B17" s="8" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C17" s="9" t="n">
         <f aca="false">B17-B18</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <f aca="false">IF(SUM(D17:K17)=C17,1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <f aca="false">IF(SUM(D17:L17)=C17,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="n">
-        <v>44033</v>
+        <v>44034</v>
       </c>
       <c r="B18" s="8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" s="9" t="n">
         <f aca="false">B18-B19</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="L18" s="5" t="n">
-        <f aca="false">IF(SUM(D18:K18)=C18,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <f aca="false">IF(SUM(D18:L18)=C18,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="n">
-        <v>44032</v>
+        <v>44033</v>
       </c>
       <c r="B19" s="8" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C19" s="9" t="n">
         <f aca="false">B19-B20</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <f aca="false">IF(SUM(D19:K19)=C19,1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <f aca="false">IF(SUM(D19:L19)=C19,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="n">
-        <v>44029</v>
+        <v>44032</v>
       </c>
       <c r="B20" s="8" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C20" s="9" t="n">
         <f aca="false">B20-B21</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" s="5" t="n">
-        <f aca="false">IF(SUM(D20:K20)=C20,1,0)</f>
+        <v>4</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <f aca="false">IF(SUM(D20:L20)=C20,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="n">
-        <v>44027</v>
+        <v>44029</v>
       </c>
       <c r="B21" s="8" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C21" s="9" t="n">
         <f aca="false">B21-B22</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" s="5" t="n">
-        <f aca="false">IF(SUM(D21:K21)=C21,1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <f aca="false">IF(SUM(D21:L21)=C21,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="n">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B22" s="8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" s="9" t="n">
         <f aca="false">B22-B23</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="L22" s="5" t="n">
-        <f aca="false">IF(SUM(D22:K22)=C22,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <f aca="false">IF(SUM(D22:L22)=C22,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="n">
-        <v>44025</v>
+        <v>44026</v>
       </c>
       <c r="B23" s="8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C23" s="9" t="n">
         <f aca="false">B23-B24</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="L23" s="5" t="n">
-        <f aca="false">IF(SUM(D23:K23)=C23,1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <f aca="false">IF(SUM(D23:L23)=C23,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="n">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B24" s="8" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C24" s="9" t="n">
         <f aca="false">B24-B25</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="L24" s="5" t="n">
-        <f aca="false">IF(SUM(D24:K24)=C24,1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <f aca="false">IF(SUM(D24:L24)=C24,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="n">
-        <v>44018</v>
+        <v>44022</v>
       </c>
       <c r="B25" s="8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C25" s="9" t="n">
         <f aca="false">B25-B26</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" s="5" t="n">
-        <f aca="false">IF(SUM(D25:K25)=C25,1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M25" s="5" t="n">
+        <f aca="false">IF(SUM(D25:L25)=C25,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="n">
-        <v>44017</v>
+        <v>44018</v>
       </c>
       <c r="B26" s="8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C26" s="9" t="n">
         <f aca="false">B26-B27</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="L26" s="5" t="n">
-        <f aca="false">IF(SUM(D26:K26)=C26,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M26" s="5" t="n">
+        <f aca="false">IF(SUM(D26:L26)=C26,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="n">
-        <v>44015</v>
+        <v>44017</v>
       </c>
       <c r="B27" s="8" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C27" s="9" t="n">
         <f aca="false">B27-B28</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" s="5" t="n">
-        <f aca="false">IF(SUM(D27:K27)=C27,1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M27" s="5" t="n">
+        <f aca="false">IF(SUM(D27:L27)=C27,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="n">
-        <v>44009</v>
+        <v>44015</v>
       </c>
       <c r="B28" s="8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" s="9" t="n">
         <f aca="false">B28-B29</f>
         <v>1</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="J28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L28" s="5" t="n">
-        <f aca="false">IF(SUM(D28:K28)=C28,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>13</v>
+      <c r="D28" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" s="5" t="n">
+        <f aca="false">IF(SUM(D28:L28)=C28,1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="n">
-        <v>44008</v>
+        <v>44009</v>
       </c>
       <c r="B29" s="8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" s="9" t="n">
         <f aca="false">B29-B30</f>
         <v>1</v>
       </c>
-      <c r="D29" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L29" s="5" t="n">
-        <f aca="false">IF(SUM(D29:K29)=C29,1,0)</f>
-        <v>1</v>
+      <c r="D29" s="10"/>
+      <c r="J29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" s="5" t="n">
+        <f aca="false">IF(SUM(D29:L29)=C29,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="n">
-        <v>43989</v>
+        <v>44008</v>
       </c>
       <c r="B30" s="8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" s="9" t="n">
         <f aca="false">B30-B31</f>
@@ -1014,17 +1039,17 @@
       <c r="D30" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="L30" s="5" t="n">
-        <f aca="false">IF(SUM(D30:K30)=C30,1,0)</f>
+      <c r="M30" s="5" t="n">
+        <f aca="false">IF(SUM(D30:L30)=C30,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="n">
-        <v>43984</v>
+        <v>43989</v>
       </c>
       <c r="B31" s="8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31" s="9" t="n">
         <f aca="false">B31-B32</f>
@@ -1033,17 +1058,17 @@
       <c r="D31" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="L31" s="5" t="n">
-        <f aca="false">IF(SUM(D31:K31)=C31,1,0)</f>
+      <c r="M31" s="5" t="n">
+        <f aca="false">IF(SUM(D31:L31)=C31,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="n">
-        <v>43982</v>
+        <v>43984</v>
       </c>
       <c r="B32" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" s="9" t="n">
         <f aca="false">B32-B33</f>
@@ -1052,17 +1077,17 @@
       <c r="D32" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="L32" s="5" t="n">
-        <f aca="false">IF(SUM(D32:K32)=C32,1,0)</f>
+      <c r="M32" s="5" t="n">
+        <f aca="false">IF(SUM(D32:L32)=C32,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="n">
-        <v>43973</v>
+        <v>43982</v>
       </c>
       <c r="B33" s="8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33" s="9" t="n">
         <f aca="false">B33-B34</f>
@@ -1071,44 +1096,63 @@
       <c r="D33" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="L33" s="5" t="n">
-        <f aca="false">IF(SUM(D33:K33)=C33,1,0)</f>
+      <c r="M33" s="5" t="n">
+        <f aca="false">IF(SUM(D33:L33)=C33,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="n">
-        <v>43940</v>
+        <v>43973</v>
       </c>
       <c r="B34" s="8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C34" s="9" t="n">
+        <f aca="false">B34-B35</f>
         <v>1</v>
       </c>
       <c r="D34" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="L34" s="5" t="n">
-        <f aca="false">IF(SUM(D34:K34)=C34,1,0)</f>
+      <c r="M34" s="5" t="n">
+        <f aca="false">IF(SUM(D34:L34)=C34,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="n">
+        <v>43940</v>
+      </c>
+      <c r="B35" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C35" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" s="5" t="n">
+        <f aca="false">IF(SUM(D35:L35)=C35,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="7" t="n">
         <v>43928</v>
       </c>
-      <c r="B35" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C35" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D35" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="L35" s="5" t="n">
-        <f aca="false">IF(SUM(D35:K35)=C35,1,0)</f>
+      <c r="B36" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M36" s="5" t="n">
+        <f aca="false">IF(SUM(D36:L36)=C36,1,0)</f>
         <v>1</v>
       </c>
     </row>

--- a/src/syria_under_reporting/death_sheet.xlsx
+++ b/src/syria_under_reporting/death_sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">Dam</t>
   </si>
   <si>
+    <t xml:space="preserve">Rif</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sweida</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sana.sy/en/?p=195773</t>
   </si>
   <si>
     <r>
@@ -227,7 +233,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -270,6 +276,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -349,12 +359,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -380,7 +390,7 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -389,13 +399,13 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="6" t="s">
@@ -404,216 +414,243 @@
       <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="n">
-        <v>44060</v>
+        <v>44061</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="6"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5"/>
       <c r="L2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="M2" s="5" t="n">
-        <f aca="false">IF(SUM(D2:L2)=C2,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="N2" s="5"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="5" t="n">
+        <f aca="false">IF(SUM(D2:M2)=C2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="n">
-        <v>44059</v>
-      </c>
-      <c r="B3" s="8" t="n">
-        <v>64</v>
-      </c>
-      <c r="C3" s="9" t="n">
-        <f aca="false">B3-B4</f>
+        <v>44060</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="D3" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="5"/>
+      <c r="D3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
       <c r="K3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5" t="n">
-        <f aca="false">IF(SUM(D3:L3)=C3,1,0)</f>
-        <v>1</v>
-      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="5" t="n">
+        <f aca="false">IF(SUM(D3:M3)=C3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="n">
-        <v>44058</v>
+        <v>44059</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C4" s="9" t="n">
         <f aca="false">B4-B5</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="5"/>
+      <c r="H4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6"/>
       <c r="J4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5" t="n">
-        <f aca="false">IF(SUM(D4:L4)=C4,1,0)</f>
+      <c r="L4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5" t="n">
+        <f aca="false">IF(SUM(D4:M4)=C4,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="n">
-        <v>44057</v>
+        <v>44058</v>
       </c>
       <c r="B5" s="8" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C5" s="9" t="n">
         <f aca="false">B5-B6</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="I5" s="6"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="K5" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="L5" s="5"/>
-      <c r="M5" s="5" t="n">
-        <f aca="false">IF(SUM(D5:L5)=C5,1,0)</f>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5" t="n">
+        <f aca="false">IF(SUM(D5:M5)=C5,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="n">
-        <v>44056</v>
+        <v>44057</v>
       </c>
       <c r="B6" s="8" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C6" s="9" t="n">
         <f aca="false">B6-B7</f>
-        <v>2</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="D6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="5" t="n">
-        <f aca="false">IF(SUM(D6:L6)=C6,1,0)</f>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5" t="n">
+        <f aca="false">IF(SUM(D6:M6)=C6,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="n">
-        <v>44054</v>
+        <v>44056</v>
       </c>
       <c r="B7" s="8" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" s="9" t="n">
         <f aca="false">B7-B8</f>
-        <v>1</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="D7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="5" t="n">
+        <v>2</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="5" t="n">
-        <f aca="false">IF(SUM(D7:L7)=C7,1,0)</f>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5" t="n">
+        <f aca="false">IF(SUM(D7:M7)=C7,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
-        <v>44052</v>
+        <v>44054</v>
       </c>
       <c r="B8" s="8" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" s="9" t="n">
         <f aca="false">B8-B9</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="M8" s="5" t="n">
-        <f aca="false">IF(SUM(D8:L8)=C8,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5" t="n">
+        <f aca="false">IF(SUM(D8:M8)=C8,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="n">
-        <v>44051</v>
+        <v>44052</v>
       </c>
       <c r="B9" s="8" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C9" s="9" t="n">
         <f aca="false">B9-B10</f>
@@ -622,180 +659,198 @@
       <c r="D9" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="M9" s="5" t="n">
-        <f aca="false">IF(SUM(D9:L9)=C9,1,0)</f>
+      <c r="E9" s="10"/>
+      <c r="F9" s="5"/>
+      <c r="N9" s="5" t="n">
+        <f aca="false">IF(SUM(D9:M9)=C9,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="n">
-        <v>44048</v>
+        <v>44051</v>
       </c>
       <c r="B10" s="8" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C10" s="9" t="n">
         <f aca="false">B10-B11</f>
         <v>2</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="F10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <f aca="false">IF(SUM(D10:L10)=C10,1,0)</f>
+      <c r="D10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="H10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <f aca="false">IF(SUM(D10:M10)=C10,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="n">
-        <v>44046</v>
+        <v>44048</v>
       </c>
       <c r="B11" s="8" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C11" s="9" t="n">
         <f aca="false">B11-B12</f>
         <v>2</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="D11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10"/>
       <c r="G11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M11" s="5" t="n">
-        <f aca="false">IF(SUM(D11:L11)=C11,1,0)</f>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <f aca="false">IF(SUM(D11:M11)=C11,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="n">
-        <v>44045</v>
+        <v>44046</v>
       </c>
       <c r="B12" s="8" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C12" s="9" t="n">
         <f aca="false">B12-B13</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <f aca="false">IF(SUM(D12:L12)=C12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <f aca="false">IF(SUM(D12:M12)=C12,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="n">
-        <v>44042</v>
+        <v>44045</v>
       </c>
       <c r="B13" s="8" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C13" s="9" t="n">
-        <f aca="false">B13-B14</f>
         <v>1</v>
       </c>
       <c r="D13" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="M13" s="5" t="n">
-        <f aca="false">IF(SUM(D13:L13)=C13,1,0)</f>
+      <c r="E13" s="10"/>
+      <c r="N13" s="5" t="n">
+        <f aca="false">IF(SUM(D13:M13)=C13,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="n">
-        <v>44039</v>
+        <v>44043</v>
       </c>
       <c r="B14" s="8" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C14" s="9" t="n">
-        <f aca="false">B14-B15</f>
         <v>2</v>
       </c>
       <c r="D14" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="M14" s="5" t="n">
-        <f aca="false">IF(SUM(D14:L14)=C14,1,0)</f>
-        <v>1</v>
-      </c>
+      <c r="E14" s="10"/>
+      <c r="N14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="n">
-        <v>44038</v>
+        <v>44042</v>
       </c>
       <c r="B15" s="8" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C15" s="9" t="n">
         <f aca="false">B15-B16</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <f aca="false">IF(SUM(D15:L15)=C15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="10"/>
+      <c r="N15" s="5" t="n">
+        <f aca="false">IF(SUM(D15:M15)=C15,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="n">
-        <v>44037</v>
+        <v>44039</v>
       </c>
       <c r="B16" s="8" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C16" s="9" t="n">
         <f aca="false">B16-B17</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="M16" s="5" t="n">
-        <f aca="false">IF(SUM(D16:L16)=C16,1,0)</f>
-        <v>1</v>
+      <c r="E16" s="10"/>
+      <c r="K16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <f aca="false">IF(SUM(D16:M16)=C16,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="n">
-        <v>44035</v>
+        <v>44038</v>
       </c>
       <c r="B17" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C17" s="9" t="n">
         <f aca="false">B17-B18</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <f aca="false">IF(SUM(D17:L17)=C17,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <f aca="false">IF(SUM(D17:M17)=C17,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="n">
-        <v>44034</v>
+        <v>44037</v>
       </c>
       <c r="B18" s="8" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C18" s="9" t="n">
         <f aca="false">B18-B19</f>
@@ -804,134 +859,140 @@
       <c r="D18" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="M18" s="5" t="n">
-        <f aca="false">IF(SUM(D18:L18)=C18,1,0)</f>
+      <c r="E18" s="10"/>
+      <c r="N18" s="5" t="n">
+        <f aca="false">IF(SUM(D18:M18)=C18,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="n">
-        <v>44033</v>
+        <v>44035</v>
       </c>
       <c r="B19" s="8" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C19" s="9" t="n">
         <f aca="false">B19-B20</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <f aca="false">IF(SUM(D19:L19)=C19,1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="N19" s="5" t="n">
+        <f aca="false">IF(SUM(D19:M19)=C19,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="n">
-        <v>44032</v>
+        <v>44034</v>
       </c>
       <c r="B20" s="8" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C20" s="9" t="n">
         <f aca="false">B20-B21</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D20" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="M20" s="5" t="n">
-        <f aca="false">IF(SUM(D20:L20)=C20,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="N20" s="5" t="n">
+        <f aca="false">IF(SUM(D20:M20)=C20,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="n">
-        <v>44029</v>
+        <v>44033</v>
       </c>
       <c r="B21" s="8" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C21" s="9" t="n">
         <f aca="false">B21-B22</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="H21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <f aca="false">IF(SUM(D21:L21)=C21,1,0)</f>
+      <c r="E21" s="10"/>
+      <c r="N21" s="5" t="n">
+        <f aca="false">IF(SUM(D21:M21)=C21,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="n">
-        <v>44027</v>
+        <v>44032</v>
       </c>
       <c r="B22" s="8" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C22" s="9" t="n">
         <f aca="false">B22-B23</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D22" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <f aca="false">IF(SUM(D22:L22)=C22,1,0)</f>
+        <v>4</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="N22" s="5" t="n">
+        <f aca="false">IF(SUM(D22:M22)=C22,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="n">
-        <v>44026</v>
+        <v>44029</v>
       </c>
       <c r="B23" s="8" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C23" s="9" t="n">
         <f aca="false">B23-B24</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <f aca="false">IF(SUM(D23:L23)=C23,1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="N23" s="5" t="n">
+        <f aca="false">IF(SUM(D23:M23)=C23,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="n">
-        <v>44025</v>
+        <v>44027</v>
       </c>
       <c r="B24" s="8" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C24" s="9" t="n">
         <f aca="false">B24-B25</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="M24" s="5" t="n">
-        <f aca="false">IF(SUM(D24:L24)=C24,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <f aca="false">IF(SUM(D24:M24)=C24,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="n">
-        <v>44022</v>
+        <v>44026</v>
       </c>
       <c r="B25" s="8" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C25" s="9" t="n">
         <f aca="false">B25-B26</f>
@@ -940,55 +1001,58 @@
       <c r="D25" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="M25" s="5" t="n">
-        <f aca="false">IF(SUM(D25:L25)=C25,1,0)</f>
+      <c r="E25" s="10"/>
+      <c r="N25" s="5" t="n">
+        <f aca="false">IF(SUM(D25:M25)=C25,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="n">
-        <v>44018</v>
+        <v>44025</v>
       </c>
       <c r="B26" s="8" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C26" s="9" t="n">
         <f aca="false">B26-B27</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" s="5" t="n">
-        <f aca="false">IF(SUM(D26:L26)=C26,1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="N26" s="5" t="n">
+        <f aca="false">IF(SUM(D26:M26)=C26,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="n">
-        <v>44017</v>
+        <v>44022</v>
       </c>
       <c r="B27" s="8" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C27" s="9" t="n">
         <f aca="false">B27-B28</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="M27" s="5" t="n">
-        <f aca="false">IF(SUM(D27:L27)=C27,1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="N27" s="5" t="n">
+        <f aca="false">IF(SUM(D27:M27)=C27,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="n">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B28" s="8" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C28" s="9" t="n">
         <f aca="false">B28-B29</f>
@@ -997,40 +1061,40 @@
       <c r="D28" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="M28" s="5" t="n">
-        <f aca="false">IF(SUM(D28:L28)=C28,1,0)</f>
+      <c r="E28" s="10"/>
+      <c r="N28" s="5" t="n">
+        <f aca="false">IF(SUM(D28:M28)=C28,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="n">
-        <v>44009</v>
+        <v>44017</v>
       </c>
       <c r="B29" s="8" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C29" s="9" t="n">
         <f aca="false">B29-B30</f>
-        <v>1</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="J29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" s="5" t="n">
-        <f aca="false">IF(SUM(D29:L29)=C29,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="N29" s="10" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="D29" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" s="5" t="n">
+        <f aca="false">IF(SUM(D29:M29)=C29,1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="n">
-        <v>44008</v>
+        <v>44015</v>
       </c>
       <c r="B30" s="8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C30" s="9" t="n">
         <f aca="false">B30-B31</f>
@@ -1039,36 +1103,44 @@
       <c r="D30" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="M30" s="5" t="n">
-        <f aca="false">IF(SUM(D30:L30)=C30,1,0)</f>
+      <c r="E30" s="10"/>
+      <c r="N30" s="5" t="n">
+        <f aca="false">IF(SUM(D30:M30)=C30,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="n">
-        <v>43989</v>
+        <v>44009</v>
       </c>
       <c r="B31" s="8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C31" s="9" t="n">
         <f aca="false">B31-B32</f>
         <v>1</v>
       </c>
       <c r="D31" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" s="5" t="n">
-        <f aca="false">IF(SUM(D31:L31)=C31,1,0)</f>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="K31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" s="5" t="n">
+        <f aca="false">IF(SUM(D31:M31)=C31,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="n">
-        <v>43984</v>
+        <v>44008</v>
       </c>
       <c r="B32" s="8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C32" s="9" t="n">
         <f aca="false">B32-B33</f>
@@ -1077,36 +1149,41 @@
       <c r="D32" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="M32" s="5" t="n">
-        <f aca="false">IF(SUM(D32:L32)=C32,1,0)</f>
+      <c r="E32" s="10"/>
+      <c r="N32" s="5" t="n">
+        <f aca="false">IF(SUM(D32:M32)=C32,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="n">
-        <v>43982</v>
+        <v>43999</v>
       </c>
       <c r="B33" s="8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C33" s="9" t="n">
         <f aca="false">B33-B34</f>
         <v>1</v>
       </c>
       <c r="D33" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" s="5" t="n">
-        <f aca="false">IF(SUM(D33:L33)=C33,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="I33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" s="5" t="n">
+        <f aca="false">IF(SUM(D33:M33)=C33,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="n">
-        <v>43973</v>
+        <v>43984</v>
       </c>
       <c r="B34" s="8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C34" s="9" t="n">
         <f aca="false">B34-B35</f>
@@ -1115,45 +1192,158 @@
       <c r="D34" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="M34" s="5" t="n">
-        <f aca="false">IF(SUM(D34:L34)=C34,1,0)</f>
+      <c r="E34" s="10"/>
+      <c r="N34" s="5" t="n">
+        <f aca="false">IF(SUM(D34:M34)=C34,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="n">
-        <v>43940</v>
+        <v>43982</v>
       </c>
       <c r="B35" s="8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C35" s="9" t="n">
+        <f aca="false">B35-B36</f>
         <v>1</v>
       </c>
       <c r="D35" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="M35" s="5" t="n">
-        <f aca="false">IF(SUM(D35:L35)=C35,1,0)</f>
+      <c r="E35" s="10"/>
+      <c r="N35" s="5" t="n">
+        <f aca="false">IF(SUM(D35:M35)=C35,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="n">
-        <v>43928</v>
+        <v>43973</v>
       </c>
       <c r="B36" s="8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C36" s="9" t="n">
-        <v>2</v>
+        <f aca="false">B36-B37</f>
+        <v>1</v>
       </c>
       <c r="D36" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="M36" s="5" t="n">
-        <f aca="false">IF(SUM(D36:L36)=C36,1,0)</f>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="N36" s="5" t="n">
+        <f aca="false">IF(SUM(D36:M36)=C36,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="7" t="n">
+        <v>43940</v>
+      </c>
+      <c r="B37" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C37" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="N37" s="5" t="n">
+        <f aca="false">IF(SUM(D37:M37)=C37,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="7" t="n">
+        <v>43920</v>
+      </c>
+      <c r="B38" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" s="5" t="n">
+        <f aca="false">IF(SUM(D38:M38)=C38,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="7" t="n">
+        <v>43919</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" s="5" t="n">
+        <f aca="false">IF(SUM(D39:M39)=C39,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="1" t="n">
+        <f aca="false">SUM(C3:C39)</f>
+        <v>68</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <f aca="false">SUM(D3:D39)</f>
+        <v>44</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <f aca="false">SUM(E3:E39)</f>
+        <v>3</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <f aca="false">SUM(F3:F39)</f>
+        <v>6</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <f aca="false">SUM(G3:G39)</f>
+        <v>2</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <f aca="false">SUM(H3:H39)</f>
+        <v>5</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <f aca="false">SUM(I3:I39)</f>
+        <v>1</v>
+      </c>
+      <c r="J40" s="1" t="n">
+        <f aca="false">SUM(J3:J39)</f>
+        <v>1</v>
+      </c>
+      <c r="K40" s="1" t="n">
+        <f aca="false">SUM(K3:K39)</f>
+        <v>4</v>
+      </c>
+      <c r="L40" s="1" t="n">
+        <f aca="false">SUM(L3:L39)</f>
+        <v>1</v>
+      </c>
+      <c r="M40" s="1" t="n">
+        <f aca="false">SUM(M3:M39)</f>
+        <v>1</v>
+      </c>
+      <c r="N40" s="0" t="n">
+        <f aca="false">SUM(D40:M40)</f>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/src/syria_under_reporting/death_sheet.xlsx
+++ b/src/syria_under_reporting/death_sheet.xlsx
@@ -237,7 +237,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -267,6 +267,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -367,12 +371,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="M41" activeCellId="0" sqref="M41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="O4" activeCellId="0" sqref="O2:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -434,17 +438,15 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="n">
-        <v>44062</v>
+        <v>44064</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="5"/>
@@ -453,16 +455,10 @@
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="K2" s="5"/>
       <c r="L2" s="6"/>
-      <c r="M2" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
       <c r="O2" s="5" t="n">
         <f aca="false">IF(SUM(D2:N2)=C2,1,0)</f>
         <v>1</v>
@@ -470,34 +466,34 @@
       <c r="P2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
-        <v>44061</v>
+      <c r="A3" s="7" t="n">
+        <v>44063</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
+      <c r="G3" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="H3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I3" s="5"/>
-      <c r="J3" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="J3" s="6"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
+      <c r="N3" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="O3" s="5" t="n">
         <f aca="false">IF(SUM(D3:N3)=C3,1,0)</f>
         <v>1</v>
@@ -506,13 +502,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="n">
-        <v>44060</v>
+        <v>44062</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>1</v>
@@ -532,7 +528,9 @@
       <c r="M4" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="N4" s="6"/>
+      <c r="N4" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="O4" s="5" t="n">
         <f aca="false">IF(SUM(D4:N4)=C4,1,0)</f>
         <v>1</v>
@@ -540,97 +538,103 @@
       <c r="P4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
-        <v>44059</v>
-      </c>
-      <c r="B5" s="9" t="n">
-        <v>64</v>
-      </c>
-      <c r="C5" s="10" t="n">
-        <f aca="false">B5-B6</f>
-        <v>4</v>
-      </c>
-      <c r="D5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="5"/>
+      <c r="A5" s="9" t="n">
+        <v>44061</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="5" t="n">
+      <c r="I5" s="5"/>
+      <c r="J5" s="6" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="5"/>
-      <c r="L5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="L5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
       <c r="O5" s="5" t="n">
         <f aca="false">IF(SUM(D5:N5)=C5,1,0)</f>
         <v>1</v>
       </c>
+      <c r="P5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
-        <v>44058</v>
-      </c>
-      <c r="B6" s="9" t="n">
-        <v>60</v>
-      </c>
-      <c r="C6" s="10" t="n">
-        <f aca="false">B6-B7</f>
-        <v>2</v>
-      </c>
-      <c r="D6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="5"/>
+      <c r="A6" s="9" t="n">
+        <v>44060</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="5"/>
+      <c r="H6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
       <c r="K6" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="6"/>
       <c r="O6" s="5" t="n">
         <f aca="false">IF(SUM(D6:N6)=C6,1,0)</f>
         <v>1</v>
       </c>
+      <c r="P6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
-        <v>44057</v>
-      </c>
-      <c r="B7" s="9" t="n">
-        <v>58</v>
-      </c>
-      <c r="C7" s="10" t="n">
+      <c r="A7" s="9" t="n">
+        <v>44059</v>
+      </c>
+      <c r="B7" s="10" t="n">
+        <v>64</v>
+      </c>
+      <c r="C7" s="11" t="n">
         <f aca="false">B7-B8</f>
-        <v>3</v>
-      </c>
-      <c r="D7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D7" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="L7" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5" t="n">
@@ -639,28 +643,28 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
-        <v>44056</v>
-      </c>
-      <c r="B8" s="9" t="n">
-        <v>55</v>
-      </c>
-      <c r="C8" s="10" t="n">
+      <c r="A8" s="9" t="n">
+        <v>44058</v>
+      </c>
+      <c r="B8" s="10" t="n">
+        <v>60</v>
+      </c>
+      <c r="C8" s="11" t="n">
         <f aca="false">B8-B9</f>
         <v>2</v>
       </c>
-      <c r="D8" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="5" t="n">
-        <v>2</v>
-      </c>
+      <c r="D8" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="I8" s="6"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="K8" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -670,24 +674,26 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="n">
-        <v>44054</v>
-      </c>
-      <c r="B9" s="9" t="n">
-        <v>53</v>
-      </c>
-      <c r="C9" s="10" t="n">
+      <c r="A9" s="9" t="n">
+        <v>44057</v>
+      </c>
+      <c r="B9" s="10" t="n">
+        <v>58</v>
+      </c>
+      <c r="C9" s="11" t="n">
         <f aca="false">B9-B10</f>
-        <v>1</v>
-      </c>
-      <c r="D9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="D9" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12"/>
       <c r="F9" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -701,93 +707,103 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
-        <v>44052</v>
-      </c>
-      <c r="B10" s="9" t="n">
-        <v>52</v>
-      </c>
-      <c r="C10" s="10" t="n">
+      <c r="A10" s="9" t="n">
+        <v>44056</v>
+      </c>
+      <c r="B10" s="10" t="n">
+        <v>55</v>
+      </c>
+      <c r="C10" s="11" t="n">
         <f aca="false">B10-B11</f>
         <v>2</v>
       </c>
-      <c r="D10" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="5"/>
+      <c r="D10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
       <c r="O10" s="5" t="n">
         <f aca="false">IF(SUM(D10:N10)=C10,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="n">
-        <v>44051</v>
-      </c>
-      <c r="B11" s="9" t="n">
-        <v>50</v>
-      </c>
-      <c r="C11" s="10" t="n">
+      <c r="A11" s="9" t="n">
+        <v>44054</v>
+      </c>
+      <c r="B11" s="10" t="n">
+        <v>53</v>
+      </c>
+      <c r="C11" s="11" t="n">
         <f aca="false">B11-B12</f>
-        <v>2</v>
-      </c>
-      <c r="D11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="H11" s="0" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
       <c r="O11" s="5" t="n">
         <f aca="false">IF(SUM(D11:N11)=C11,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="n">
-        <v>44048</v>
-      </c>
-      <c r="B12" s="9" t="n">
-        <v>48</v>
-      </c>
-      <c r="C12" s="10" t="n">
+      <c r="A12" s="9" t="n">
+        <v>44052</v>
+      </c>
+      <c r="B12" s="10" t="n">
+        <v>52</v>
+      </c>
+      <c r="C12" s="11" t="n">
         <f aca="false">B12-B13</f>
         <v>2</v>
       </c>
-      <c r="D12" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="G12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="D12" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="5"/>
       <c r="O12" s="5" t="n">
         <f aca="false">IF(SUM(D12:N12)=C12,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="n">
-        <v>44046</v>
-      </c>
-      <c r="B13" s="9" t="n">
-        <v>46</v>
-      </c>
-      <c r="C13" s="10" t="n">
+      <c r="A13" s="9" t="n">
+        <v>44051</v>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="C13" s="11" t="n">
         <f aca="false">B13-B14</f>
         <v>2</v>
       </c>
-      <c r="D13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="D13" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12"/>
       <c r="H13" s="0" t="n">
         <v>1</v>
       </c>
@@ -797,614 +813,666 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="n">
-        <v>44045</v>
-      </c>
-      <c r="B14" s="9" t="n">
-        <v>44</v>
-      </c>
-      <c r="C14" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="11"/>
+      <c r="A14" s="9" t="n">
+        <v>44048</v>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>48</v>
+      </c>
+      <c r="C14" s="11" t="n">
+        <f aca="false">B14-B15</f>
+        <v>2</v>
+      </c>
+      <c r="D14" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="O14" s="5" t="n">
         <f aca="false">IF(SUM(D14:N14)=C14,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="n">
-        <v>44043</v>
-      </c>
-      <c r="B15" s="9" t="n">
-        <v>43</v>
-      </c>
-      <c r="C15" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D15" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" s="11"/>
+      <c r="A15" s="9" t="n">
+        <v>44046</v>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>46</v>
+      </c>
+      <c r="C15" s="11" t="n">
+        <f aca="false">B15-B16</f>
+        <v>2</v>
+      </c>
+      <c r="D15" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="O15" s="5" t="n">
         <f aca="false">IF(SUM(D15:N15)=C15,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="n">
-        <v>44042</v>
-      </c>
-      <c r="B16" s="9" t="n">
-        <v>41</v>
-      </c>
-      <c r="C16" s="10" t="n">
-        <f aca="false">B16-B17</f>
-        <v>1</v>
-      </c>
-      <c r="D16" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="11"/>
+      <c r="A16" s="9" t="n">
+        <v>44045</v>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>44</v>
+      </c>
+      <c r="C16" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12"/>
       <c r="O16" s="5" t="n">
         <f aca="false">IF(SUM(D16:N16)=C16,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="n">
-        <v>44039</v>
-      </c>
-      <c r="B17" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="C17" s="10" t="n">
-        <f aca="false">B17-B18</f>
-        <v>2</v>
-      </c>
-      <c r="D17" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="K17" s="0" t="n">
-        <v>1</v>
-      </c>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B17" s="10" t="n">
+        <v>43</v>
+      </c>
+      <c r="C17" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="12"/>
       <c r="O17" s="5" t="n">
         <f aca="false">IF(SUM(D17:N17)=C17,1,0)</f>
         <v>1</v>
       </c>
-      <c r="P17" s="12" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="n">
-        <v>44038</v>
-      </c>
-      <c r="B18" s="9" t="n">
-        <v>38</v>
-      </c>
-      <c r="C18" s="10" t="n">
+      <c r="A18" s="9" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B18" s="10" t="n">
+        <v>41</v>
+      </c>
+      <c r="C18" s="11" t="n">
         <f aca="false">B18-B19</f>
-        <v>2</v>
-      </c>
-      <c r="D18" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="0" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D18" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="12"/>
       <c r="O18" s="5" t="n">
         <f aca="false">IF(SUM(D18:N18)=C18,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="n">
-        <v>44037</v>
-      </c>
-      <c r="B19" s="9" t="n">
-        <v>36</v>
-      </c>
-      <c r="C19" s="10" t="n">
+    <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="n">
+        <v>44039</v>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="C19" s="11" t="n">
         <f aca="false">B19-B20</f>
-        <v>1</v>
-      </c>
-      <c r="D19" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="D19" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="K19" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="O19" s="5" t="n">
         <f aca="false">IF(SUM(D19:N19)=C19,1,0)</f>
         <v>1</v>
       </c>
+      <c r="P19" s="13" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="n">
-        <v>44035</v>
-      </c>
-      <c r="B20" s="9" t="n">
-        <v>35</v>
-      </c>
-      <c r="C20" s="10" t="n">
+      <c r="A20" s="9" t="n">
+        <v>44038</v>
+      </c>
+      <c r="B20" s="10" t="n">
+        <v>38</v>
+      </c>
+      <c r="C20" s="11" t="n">
         <f aca="false">B20-B21</f>
-        <v>3</v>
-      </c>
-      <c r="D20" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="D20" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="O20" s="5" t="n">
         <f aca="false">IF(SUM(D20:N20)=C20,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="n">
-        <v>44034</v>
-      </c>
-      <c r="B21" s="9" t="n">
-        <v>32</v>
-      </c>
-      <c r="C21" s="10" t="n">
+      <c r="A21" s="9" t="n">
+        <v>44037</v>
+      </c>
+      <c r="B21" s="10" t="n">
+        <v>36</v>
+      </c>
+      <c r="C21" s="11" t="n">
         <f aca="false">B21-B22</f>
         <v>1</v>
       </c>
-      <c r="D21" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="11"/>
+      <c r="D21" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="12"/>
       <c r="O21" s="5" t="n">
         <f aca="false">IF(SUM(D21:N21)=C21,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="n">
-        <v>44033</v>
-      </c>
-      <c r="B22" s="9" t="n">
-        <v>31</v>
-      </c>
-      <c r="C22" s="10" t="n">
+      <c r="A22" s="9" t="n">
+        <v>44035</v>
+      </c>
+      <c r="B22" s="10" t="n">
+        <v>35</v>
+      </c>
+      <c r="C22" s="11" t="n">
         <f aca="false">B22-B23</f>
-        <v>2</v>
-      </c>
-      <c r="D22" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="D22" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" s="12"/>
       <c r="O22" s="5" t="n">
         <f aca="false">IF(SUM(D22:N22)=C22,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="n">
-        <v>44032</v>
-      </c>
-      <c r="B23" s="9" t="n">
-        <v>29</v>
-      </c>
-      <c r="C23" s="10" t="n">
+      <c r="A23" s="9" t="n">
+        <v>44034</v>
+      </c>
+      <c r="B23" s="10" t="n">
+        <v>32</v>
+      </c>
+      <c r="C23" s="11" t="n">
         <f aca="false">B23-B24</f>
-        <v>4</v>
-      </c>
-      <c r="D23" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E23" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="D23" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="12"/>
       <c r="O23" s="5" t="n">
         <f aca="false">IF(SUM(D23:N23)=C23,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="n">
-        <v>44029</v>
-      </c>
-      <c r="B24" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="C24" s="10" t="n">
+      <c r="A24" s="9" t="n">
+        <v>44033</v>
+      </c>
+      <c r="B24" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="C24" s="11" t="n">
         <f aca="false">B24-B25</f>
-        <v>3</v>
-      </c>
-      <c r="D24" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E24" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="D24" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="12"/>
       <c r="O24" s="5" t="n">
         <f aca="false">IF(SUM(D24:N24)=C24,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B25" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="C25" s="10" t="n">
+      <c r="A25" s="9" t="n">
+        <v>44032</v>
+      </c>
+      <c r="B25" s="10" t="n">
+        <v>29</v>
+      </c>
+      <c r="C25" s="11" t="n">
         <f aca="false">B25-B26</f>
-        <v>1</v>
-      </c>
-      <c r="D25" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="11" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D25" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" s="12"/>
       <c r="O25" s="5" t="n">
         <f aca="false">IF(SUM(D25:N25)=C25,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="n">
-        <v>44026</v>
-      </c>
-      <c r="B26" s="9" t="n">
-        <v>21</v>
-      </c>
-      <c r="C26" s="10" t="n">
+      <c r="A26" s="9" t="n">
+        <v>44029</v>
+      </c>
+      <c r="B26" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" s="11" t="n">
         <f aca="false">B26-B27</f>
-        <v>2</v>
-      </c>
-      <c r="D26" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E26" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="D26" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" s="12"/>
       <c r="O26" s="5" t="n">
         <f aca="false">IF(SUM(D26:N26)=C26,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="n">
-        <v>44025</v>
-      </c>
-      <c r="B27" s="9" t="n">
-        <v>19</v>
-      </c>
-      <c r="C27" s="10" t="n">
+      <c r="A27" s="9" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B27" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="C27" s="11" t="n">
         <f aca="false">B27-B28</f>
-        <v>3</v>
-      </c>
-      <c r="D27" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E27" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="D27" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="O27" s="5" t="n">
         <f aca="false">IF(SUM(D27:N27)=C27,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="n">
-        <v>44022</v>
-      </c>
-      <c r="B28" s="9" t="n">
-        <v>16</v>
-      </c>
-      <c r="C28" s="10" t="n">
+      <c r="A28" s="9" t="n">
+        <v>44026</v>
+      </c>
+      <c r="B28" s="10" t="n">
+        <v>21</v>
+      </c>
+      <c r="C28" s="11" t="n">
         <f aca="false">B28-B29</f>
         <v>2</v>
       </c>
-      <c r="D28" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E28" s="11"/>
+      <c r="D28" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" s="12"/>
       <c r="O28" s="5" t="n">
         <f aca="false">IF(SUM(D28:N28)=C28,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="n">
-        <v>44018</v>
-      </c>
-      <c r="B29" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="C29" s="10" t="n">
+      <c r="A29" s="9" t="n">
+        <v>44025</v>
+      </c>
+      <c r="B29" s="10" t="n">
+        <v>19</v>
+      </c>
+      <c r="C29" s="11" t="n">
         <f aca="false">B29-B30</f>
-        <v>1</v>
-      </c>
-      <c r="D29" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="D29" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" s="12"/>
       <c r="O29" s="5" t="n">
         <f aca="false">IF(SUM(D29:N29)=C29,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="n">
-        <v>44017</v>
-      </c>
-      <c r="B30" s="9" t="n">
-        <v>13</v>
-      </c>
-      <c r="C30" s="10" t="n">
+      <c r="A30" s="9" t="n">
+        <v>44022</v>
+      </c>
+      <c r="B30" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="C30" s="11" t="n">
         <f aca="false">B30-B31</f>
-        <v>3</v>
-      </c>
-      <c r="D30" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E30" s="11" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D30" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" s="12"/>
       <c r="O30" s="5" t="n">
         <f aca="false">IF(SUM(D30:N30)=C30,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="n">
-        <v>44015</v>
-      </c>
-      <c r="B31" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C31" s="10" t="n">
+      <c r="A31" s="9" t="n">
+        <v>44018</v>
+      </c>
+      <c r="B31" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="C31" s="11" t="n">
         <f aca="false">B31-B32</f>
         <v>1</v>
       </c>
-      <c r="D31" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="11"/>
+      <c r="D31" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="12"/>
       <c r="O31" s="5" t="n">
         <f aca="false">IF(SUM(D31:N31)=C31,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="n">
-        <v>44009</v>
-      </c>
-      <c r="B32" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="C32" s="10" t="n">
+      <c r="A32" s="9" t="n">
+        <v>44017</v>
+      </c>
+      <c r="B32" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="C32" s="11" t="n">
         <f aca="false">B32-B33</f>
-        <v>1</v>
-      </c>
-      <c r="D32" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="11"/>
-      <c r="K32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" s="12" t="n">
         <v>1</v>
       </c>
       <c r="O32" s="5" t="n">
         <f aca="false">IF(SUM(D32:N32)=C32,1,0)</f>
         <v>1</v>
       </c>
-      <c r="P32" s="11" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="n">
-        <v>44008</v>
-      </c>
-      <c r="B33" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C33" s="10" t="n">
+      <c r="A33" s="9" t="n">
+        <v>44015</v>
+      </c>
+      <c r="B33" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C33" s="11" t="n">
         <f aca="false">B33-B34</f>
         <v>1</v>
       </c>
-      <c r="D33" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="11"/>
+      <c r="D33" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="12"/>
       <c r="O33" s="5" t="n">
         <f aca="false">IF(SUM(D33:N33)=C33,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="n">
-        <v>43999</v>
-      </c>
-      <c r="B34" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C34" s="10" t="n">
+      <c r="A34" s="9" t="n">
+        <v>44009</v>
+      </c>
+      <c r="B34" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C34" s="11" t="n">
         <f aca="false">B34-B35</f>
         <v>1</v>
       </c>
-      <c r="D34" s="11" t="n">
+      <c r="D34" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="E34" s="11"/>
-      <c r="I34" s="0" t="n">
+      <c r="E34" s="12"/>
+      <c r="K34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="O34" s="5" t="n">
         <f aca="false">IF(SUM(D34:N34)=C34,1,0)</f>
         <v>1</v>
       </c>
+      <c r="P34" s="12" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="n">
-        <v>43984</v>
-      </c>
-      <c r="B35" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C35" s="10" t="n">
+      <c r="A35" s="9" t="n">
+        <v>44008</v>
+      </c>
+      <c r="B35" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C35" s="11" t="n">
         <f aca="false">B35-B36</f>
         <v>1</v>
       </c>
-      <c r="D35" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="11"/>
+      <c r="D35" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="12"/>
       <c r="O35" s="5" t="n">
         <f aca="false">IF(SUM(D35:N35)=C35,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="n">
-        <v>43982</v>
-      </c>
-      <c r="B36" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C36" s="10" t="n">
+      <c r="A36" s="9" t="n">
+        <v>43999</v>
+      </c>
+      <c r="B36" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C36" s="11" t="n">
         <f aca="false">B36-B37</f>
         <v>1</v>
       </c>
-      <c r="D36" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="11"/>
+      <c r="D36" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="I36" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="O36" s="5" t="n">
         <f aca="false">IF(SUM(D36:N36)=C36,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="n">
-        <v>43973</v>
-      </c>
-      <c r="B37" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C37" s="10" t="n">
+      <c r="A37" s="9" t="n">
+        <v>43984</v>
+      </c>
+      <c r="B37" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C37" s="11" t="n">
         <f aca="false">B37-B38</f>
         <v>1</v>
       </c>
-      <c r="D37" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="11"/>
+      <c r="D37" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="12"/>
       <c r="O37" s="5" t="n">
         <f aca="false">IF(SUM(D37:N37)=C37,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8" t="n">
-        <v>43940</v>
-      </c>
-      <c r="B38" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C38" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="11"/>
+      <c r="A38" s="9" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B38" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C38" s="11" t="n">
+        <f aca="false">B38-B39</f>
+        <v>1</v>
+      </c>
+      <c r="D38" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="12"/>
       <c r="O38" s="5" t="n">
         <f aca="false">IF(SUM(D38:N38)=C38,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="n">
-        <v>43920</v>
-      </c>
-      <c r="B39" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C39" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="11" t="n">
-        <v>1</v>
-      </c>
+      <c r="A39" s="9" t="n">
+        <v>43973</v>
+      </c>
+      <c r="B39" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C39" s="11" t="n">
+        <f aca="false">B39-B40</f>
+        <v>1</v>
+      </c>
+      <c r="D39" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="12"/>
       <c r="O39" s="5" t="n">
         <f aca="false">IF(SUM(D39:N39)=C39,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="n">
-        <v>43919</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="A40" s="9" t="n">
+        <v>43940</v>
+      </c>
+      <c r="B40" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="12"/>
       <c r="O40" s="5" t="n">
         <f aca="false">IF(SUM(D40:N40)=C40,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="1" t="n">
-        <f aca="false">SUM(C$2:C40)</f>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9" t="n">
+        <v>43920</v>
+      </c>
+      <c r="B41" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" s="5" t="n">
+        <f aca="false">IF(SUM(D41:N41)=C41,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="n">
+        <v>43919</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O42" s="5" t="n">
+        <f aca="false">IF(SUM(D42:N42)=C42,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="1" t="n">
+        <f aca="false">SUM(C$4:C42)</f>
         <v>78</v>
       </c>
-      <c r="D41" s="1" t="n">
-        <f aca="false">SUM(D$2:D40)</f>
+      <c r="D43" s="1" t="n">
+        <f aca="false">SUM(D$4:D42)</f>
         <v>47</v>
       </c>
-      <c r="E41" s="1" t="n">
-        <f aca="false">SUM(E$2:E40)</f>
+      <c r="E43" s="1" t="n">
+        <f aca="false">SUM(E$4:E42)</f>
         <v>3</v>
       </c>
-      <c r="F41" s="1" t="n">
-        <f aca="false">SUM(F$2:F40)</f>
+      <c r="F43" s="1" t="n">
+        <f aca="false">SUM(F$4:F42)</f>
         <v>6</v>
       </c>
-      <c r="G41" s="1" t="n">
-        <f aca="false">SUM(G$2:G40)</f>
-        <v>2</v>
-      </c>
-      <c r="H41" s="1" t="n">
-        <f aca="false">SUM(H$2:H40)</f>
+      <c r="G43" s="1" t="n">
+        <f aca="false">SUM(G$4:G42)</f>
+        <v>2</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <f aca="false">SUM(H$4:H42)</f>
         <v>7</v>
       </c>
-      <c r="I41" s="1" t="n">
-        <f aca="false">SUM(I$2:I40)</f>
-        <v>1</v>
-      </c>
-      <c r="J41" s="1" t="n">
-        <f aca="false">SUM(J$2:J40)</f>
-        <v>2</v>
-      </c>
-      <c r="K41" s="1" t="n">
-        <f aca="false">SUM(K$2:K40)</f>
+      <c r="I43" s="1" t="n">
+        <f aca="false">SUM(I$4:I42)</f>
+        <v>1</v>
+      </c>
+      <c r="J43" s="1" t="n">
+        <f aca="false">SUM(J$4:J42)</f>
+        <v>2</v>
+      </c>
+      <c r="K43" s="1" t="n">
+        <f aca="false">SUM(K$4:K42)</f>
         <v>5</v>
       </c>
-      <c r="L41" s="1" t="n">
-        <f aca="false">SUM(L$2:L40)</f>
-        <v>2</v>
-      </c>
-      <c r="M41" s="1" t="n">
-        <f aca="false">SUM(M$2:M40)</f>
-        <v>2</v>
-      </c>
-      <c r="N41" s="1" t="n">
-        <f aca="false">SUM(N$2:N40)</f>
-        <v>1</v>
-      </c>
-      <c r="O41" s="0" t="n">
-        <f aca="false">SUM(D41:M41)</f>
+      <c r="L43" s="1" t="n">
+        <f aca="false">SUM(L$4:L42)</f>
+        <v>2</v>
+      </c>
+      <c r="M43" s="1" t="n">
+        <f aca="false">SUM(M$4:M42)</f>
+        <v>2</v>
+      </c>
+      <c r="N43" s="1" t="n">
+        <f aca="false">SUM(N$4:N42)</f>
+        <v>1</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <f aca="false">SUM(D43:M43)</f>
         <v>77</v>
       </c>
     </row>

--- a/src/syria_under_reporting/death_sheet.xlsx
+++ b/src/syria_under_reporting/death_sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -101,9 +101,6 @@
       </rPr>
       <t xml:space="preserve"> recorded Aleppo case</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Totals</t>
   </si>
 </sst>
 </file>
@@ -273,12 +270,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K29" activeCellId="0" sqref="K29"/>
+      <selection pane="bottomLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -338,18 +335,20 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
-        <v>44066</v>
+        <v>44068</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6" t="n">
@@ -357,39 +356,38 @@
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="K2" s="6"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="N2" s="7"/>
       <c r="O2" s="6" t="n">
         <f aca="false">IF(SUM(D2:N2)=C2,1,0)</f>
         <v>1</v>
       </c>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
-        <v>44065</v>
+        <v>44067</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="K3" s="6"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
@@ -397,59 +395,65 @@
         <f aca="false">IF(SUM(D3:N3)=C3,1,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
-        <v>44064</v>
+        <v>44066</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="I4" s="6"/>
       <c r="J4" s="7"/>
+      <c r="K4" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="O4" s="6" t="n">
         <f aca="false">IF(SUM(D4:N4)=C4,1,0)</f>
         <v>1</v>
       </c>
+      <c r="P4" s="2"/>
     </row>
     <row r="5" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
-        <v>44063</v>
+        <v>44065</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>1</v>
-      </c>
       <c r="J5" s="7"/>
+      <c r="K5" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="N5" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="N5" s="7"/>
       <c r="O5" s="6" t="n">
         <f aca="false">IF(SUM(D5:N5)=C5,1,0)</f>
         <v>1</v>
@@ -457,33 +461,24 @@
     </row>
     <row r="6" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
-        <v>44062</v>
+        <v>44064</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="H6" s="6" t="n">
         <v>1</v>
       </c>
       <c r="J6" s="7"/>
-      <c r="K6" s="6" t="n">
-        <v>1</v>
-      </c>
       <c r="L6" s="7"/>
-      <c r="M6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
       <c r="O6" s="6" t="n">
         <f aca="false">IF(SUM(D6:N6)=C6,1,0)</f>
         <v>1</v>
@@ -491,30 +486,31 @@
     </row>
     <row r="7" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
-        <v>44061</v>
+        <v>44063</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
+      <c r="G7" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="H7" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="J7" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J7" s="7"/>
+      <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
+      <c r="N7" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="O7" s="6" t="n">
         <f aca="false">IF(SUM(D7:N7)=C7,1,0)</f>
         <v>1</v>
@@ -522,13 +518,13 @@
     </row>
     <row r="8" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
-        <v>44060</v>
+        <v>44062</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>1</v>
@@ -546,7 +542,9 @@
       <c r="M8" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="N8" s="7"/>
+      <c r="N8" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="O8" s="6" t="n">
         <f aca="false">IF(SUM(D8:N8)=C8,1,0)</f>
         <v>1</v>
@@ -554,29 +552,30 @@
     </row>
     <row r="9" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
-        <v>44059</v>
+        <v>44061</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C9" s="5" t="n">
-        <f aca="false">B9-B10</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
       <c r="H9" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="J9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
       <c r="O9" s="6" t="n">
         <f aca="false">IF(SUM(D9:N9)=C9,1,0)</f>
         <v>1</v>
@@ -584,23 +583,31 @@
     </row>
     <row r="10" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
-        <v>44058</v>
+        <v>44060</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C10" s="5" t="n">
-        <f aca="false">B10-B11</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="I10" s="7"/>
+      <c r="F10" s="5"/>
+      <c r="H10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7"/>
       <c r="K10" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="6" t="n">
         <f aca="false">IF(SUM(D10:N10)=C10,1,0)</f>
         <v>1</v>
@@ -608,23 +615,27 @@
     </row>
     <row r="11" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
-        <v>44057</v>
+        <v>44059</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C11" s="5" t="n">
         <f aca="false">B11-B12</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="6" t="n">
+      <c r="H11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="6" t="n">
         <v>1</v>
       </c>
       <c r="O11" s="6" t="n">
@@ -634,21 +645,22 @@
     </row>
     <row r="12" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
-        <v>44056</v>
+        <v>44058</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C12" s="5" t="n">
         <f aca="false">B12-B13</f>
         <v>2</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="6" t="n">
-        <v>2</v>
+      <c r="I12" s="7"/>
+      <c r="K12" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="O12" s="6" t="n">
         <f aca="false">IF(SUM(D12:N12)=C12,1,0)</f>
@@ -657,22 +669,25 @@
     </row>
     <row r="13" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
-        <v>44054</v>
+        <v>44057</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C13" s="5" t="n">
         <f aca="false">B13-B14</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="G13" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="O13" s="6" t="n">
         <f aca="false">IF(SUM(D13:N13)=C13,1,0)</f>
         <v>1</v>
@@ -680,19 +695,22 @@
     </row>
     <row r="14" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
-        <v>44052</v>
+        <v>44056</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C14" s="5" t="n">
         <f aca="false">B14-B15</f>
         <v>2</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14" s="5"/>
+      <c r="F14" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="O14" s="6" t="n">
         <f aca="false">IF(SUM(D14:N14)=C14,1,0)</f>
         <v>1</v>
@@ -700,20 +718,20 @@
     </row>
     <row r="15" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
-        <v>44051</v>
+        <v>44054</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C15" s="5" t="n">
         <f aca="false">B15-B16</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="H15" s="6" t="n">
+      <c r="F15" s="6" t="n">
         <v>1</v>
       </c>
       <c r="O15" s="6" t="n">
@@ -723,25 +741,19 @@
     </row>
     <row r="16" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
-        <v>44048</v>
+        <v>44052</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C16" s="5" t="n">
         <f aca="false">B16-B17</f>
         <v>2</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="G16" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="6" t="n">
-        <v>1</v>
-      </c>
       <c r="O16" s="6" t="n">
         <f aca="false">IF(SUM(D16:N16)=C16,1,0)</f>
         <v>1</v>
@@ -749,22 +761,19 @@
     </row>
     <row r="17" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
-        <v>44046</v>
+        <v>44051</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C17" s="5" t="n">
         <f aca="false">B17-B18</f>
         <v>2</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="6" t="n">
-        <v>1</v>
-      </c>
       <c r="H17" s="6" t="n">
         <v>1</v>
       </c>
@@ -775,18 +784,25 @@
     </row>
     <row r="18" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
-        <v>44045</v>
+        <v>44048</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1</v>
+        <f aca="false">B18-B19</f>
+        <v>2</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="5"/>
+      <c r="G18" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="O18" s="6" t="n">
         <f aca="false">IF(SUM(D18:N18)=C18,1,0)</f>
         <v>1</v>
@@ -794,18 +810,25 @@
     </row>
     <row r="19" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
-        <v>44043</v>
+        <v>44046</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C19" s="5" t="n">
+        <f aca="false">B19-B20</f>
         <v>2</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E19" s="5"/>
+      <c r="F19" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="O19" s="6" t="n">
         <f aca="false">IF(SUM(D19:N19)=C19,1,0)</f>
         <v>1</v>
@@ -813,13 +836,12 @@
     </row>
     <row r="20" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="n">
-        <v>44042</v>
+        <v>44045</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C20" s="5" t="n">
-        <f aca="false">B20-B21</f>
         <v>1</v>
       </c>
       <c r="D20" s="5" t="n">
@@ -831,90 +853,89 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" s="6" customFormat="true" ht="35.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="n">
-        <v>44039</v>
+        <v>44043</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C21" s="5" t="n">
-        <f aca="false">B21-B22</f>
         <v>2</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="K21" s="6" t="n">
-        <v>1</v>
-      </c>
       <c r="O21" s="6" t="n">
         <f aca="false">IF(SUM(D21:N21)=C21,1,0)</f>
         <v>1</v>
       </c>
-      <c r="P21" s="8" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="22" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
-        <v>44038</v>
+        <v>44042</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C22" s="5" t="n">
         <f aca="false">B22-B23</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="6" t="n">
-        <v>1</v>
-      </c>
       <c r="O22" s="6" t="n">
         <f aca="false">IF(SUM(D22:N22)=C22,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="6" customFormat="true" ht="35.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="n">
-        <v>44037</v>
+        <v>44039</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C23" s="5" t="n">
         <f aca="false">B23-B24</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E23" s="5"/>
+      <c r="K23" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="O23" s="6" t="n">
         <f aca="false">IF(SUM(D23:N23)=C23,1,0)</f>
         <v>1</v>
       </c>
+      <c r="P23" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="24" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="n">
-        <v>44035</v>
+        <v>44038</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C24" s="5" t="n">
         <f aca="false">B24-B25</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E24" s="5"/>
+      <c r="F24" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="O24" s="6" t="n">
         <f aca="false">IF(SUM(D24:N24)=C24,1,0)</f>
         <v>1</v>
@@ -922,10 +943,10 @@
     </row>
     <row r="25" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="n">
-        <v>44034</v>
+        <v>44037</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C25" s="5" t="n">
         <f aca="false">B25-B26</f>
@@ -942,17 +963,17 @@
     </row>
     <row r="26" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="n">
-        <v>44033</v>
+        <v>44035</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C26" s="5" t="n">
         <f aca="false">B26-B27</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" s="5"/>
       <c r="O26" s="6" t="n">
@@ -962,17 +983,17 @@
     </row>
     <row r="27" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="n">
-        <v>44032</v>
+        <v>44034</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C27" s="5" t="n">
         <f aca="false">B27-B28</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E27" s="5"/>
       <c r="O27" s="6" t="n">
@@ -982,17 +1003,17 @@
     </row>
     <row r="28" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="n">
-        <v>44029</v>
+        <v>44033</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C28" s="5" t="n">
         <f aca="false">B28-B29</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" s="5"/>
       <c r="O28" s="6" t="n">
@@ -1002,21 +1023,19 @@
     </row>
     <row r="29" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="n">
-        <v>44027</v>
+        <v>44032</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C29" s="5" t="n">
         <f aca="false">B29-B30</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="5" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E29" s="5"/>
       <c r="O29" s="6" t="n">
         <f aca="false">IF(SUM(D29:N29)=C29,1,0)</f>
         <v>1</v>
@@ -1024,17 +1043,17 @@
     </row>
     <row r="30" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="n">
-        <v>44026</v>
+        <v>44029</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C30" s="5" t="n">
         <f aca="false">B30-B31</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30" s="5"/>
       <c r="O30" s="6" t="n">
@@ -1044,19 +1063,21 @@
     </row>
     <row r="31" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="n">
-        <v>44025</v>
+        <v>44027</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C31" s="5" t="n">
         <f aca="false">B31-B32</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E31" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="O31" s="6" t="n">
         <f aca="false">IF(SUM(D31:N31)=C31,1,0)</f>
         <v>1</v>
@@ -1064,10 +1085,10 @@
     </row>
     <row r="32" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="n">
-        <v>44022</v>
+        <v>44026</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C32" s="5" t="n">
         <f aca="false">B32-B33</f>
@@ -1084,17 +1105,17 @@
     </row>
     <row r="33" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="n">
-        <v>44018</v>
+        <v>44025</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C33" s="5" t="n">
         <f aca="false">B33-B34</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E33" s="5"/>
       <c r="O33" s="6" t="n">
@@ -1104,21 +1125,19 @@
     </row>
     <row r="34" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="n">
-        <v>44017</v>
+        <v>44022</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C34" s="5" t="n">
         <f aca="false">B34-B35</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="E34" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="E34" s="5"/>
       <c r="O34" s="6" t="n">
         <f aca="false">IF(SUM(D34:N34)=C34,1,0)</f>
         <v>1</v>
@@ -1126,10 +1145,10 @@
     </row>
     <row r="35" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="n">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C35" s="5" t="n">
         <f aca="false">B35-B36</f>
@@ -1146,36 +1165,32 @@
     </row>
     <row r="36" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="n">
-        <v>44009</v>
+        <v>44017</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C36" s="5" t="n">
         <f aca="false">B36-B37</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="K36" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" s="5" t="n">
         <v>1</v>
       </c>
       <c r="O36" s="6" t="n">
         <f aca="false">IF(SUM(D36:N36)=C36,1,0)</f>
         <v>1</v>
       </c>
-      <c r="P36" s="5" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="37" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="n">
-        <v>44008</v>
+        <v>44015</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C37" s="5" t="n">
         <f aca="false">B37-B38</f>
@@ -1192,10 +1207,10 @@
     </row>
     <row r="38" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="n">
-        <v>43999</v>
+        <v>44009</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C38" s="5" t="n">
         <f aca="false">B38-B39</f>
@@ -1205,20 +1220,23 @@
         <v>0</v>
       </c>
       <c r="E38" s="5"/>
-      <c r="I38" s="6" t="n">
+      <c r="K38" s="6" t="n">
         <v>1</v>
       </c>
       <c r="O38" s="6" t="n">
         <f aca="false">IF(SUM(D38:N38)=C38,1,0)</f>
         <v>1</v>
       </c>
+      <c r="P38" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="39" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="n">
-        <v>43984</v>
+        <v>44008</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C39" s="5" t="n">
         <f aca="false">B39-B40</f>
@@ -1235,19 +1253,22 @@
     </row>
     <row r="40" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="n">
-        <v>43982</v>
+        <v>43999</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C40" s="5" t="n">
         <f aca="false">B40-B41</f>
         <v>1</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="5"/>
+      <c r="I40" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="O40" s="6" t="n">
         <f aca="false">IF(SUM(D40:N40)=C40,1,0)</f>
         <v>1</v>
@@ -1255,10 +1276,10 @@
     </row>
     <row r="41" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="n">
-        <v>43973</v>
+        <v>43984</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C41" s="5" t="n">
         <f aca="false">B41-B42</f>
@@ -1275,12 +1296,13 @@
     </row>
     <row r="42" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="n">
-        <v>43940</v>
+        <v>43982</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C42" s="5" t="n">
+        <f aca="false">B42-B43</f>
         <v>1</v>
       </c>
       <c r="D42" s="5" t="n">
@@ -1294,20 +1316,19 @@
     </row>
     <row r="43" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="n">
-        <v>43920</v>
+        <v>43973</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C43" s="5" t="n">
+        <f aca="false">B43-B44</f>
         <v>1</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" s="5" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E43" s="5"/>
       <c r="O43" s="6" t="n">
         <f aca="false">IF(SUM(D43:N43)=C43,1,0)</f>
         <v>1</v>
@@ -1315,74 +1336,112 @@
     </row>
     <row r="44" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="n">
-        <v>43919</v>
-      </c>
-      <c r="B44" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C44" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" s="6" t="n">
-        <v>1</v>
-      </c>
+        <v>43940</v>
+      </c>
+      <c r="B44" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C44" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="5"/>
       <c r="O44" s="6" t="n">
         <f aca="false">IF(SUM(D44:N44)=C44,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2" t="n">
-        <f aca="false">SUM($C$2:C44)</f>
-        <v>89</v>
-      </c>
-      <c r="D45" s="2" t="n">
-        <f aca="false">SUM($C$2:D44)</f>
-        <v>139</v>
-      </c>
-      <c r="E45" s="2" t="n">
-        <f aca="false">SUM($C$2:E44)</f>
-        <v>142</v>
-      </c>
-      <c r="F45" s="2" t="n">
-        <f aca="false">SUM($C$2:F44)</f>
-        <v>148</v>
-      </c>
-      <c r="G45" s="2" t="n">
-        <f aca="false">SUM($C$2:G44)</f>
-        <v>151</v>
-      </c>
-      <c r="H45" s="2" t="n">
-        <f aca="false">SUM($C$2:H44)</f>
-        <v>161</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <f aca="false">SUM($C$2:I44)</f>
-        <v>162</v>
-      </c>
-      <c r="J45" s="2" t="n">
-        <f aca="false">SUM($C$2:J44)</f>
-        <v>164</v>
-      </c>
-      <c r="K45" s="2" t="n">
-        <f aca="false">SUM($C$2:K44)</f>
-        <v>171</v>
-      </c>
-      <c r="L45" s="2" t="n">
-        <f aca="false">SUM($C$2:L44)</f>
-        <v>173</v>
-      </c>
-      <c r="M45" s="2" t="n">
-        <f aca="false">SUM($C$2:M44)</f>
-        <v>175</v>
-      </c>
-      <c r="N45" s="2" t="n">
-        <f aca="false">SUM($C$2:N44)</f>
-        <v>178</v>
+    <row r="45" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="n">
+        <v>43920</v>
+      </c>
+      <c r="B45" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C45" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O45" s="6" t="n">
+        <f aca="false">IF(SUM(D45:N45)=C45,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="n">
+        <v>43919</v>
+      </c>
+      <c r="B46" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O46" s="6" t="n">
+        <f aca="false">IF(SUM(D46:N46)=C46,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2" t="n">
+        <f aca="false">SUM(C$3:C46)</f>
+        <v>92</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <f aca="false">SUM(D$3:D46)</f>
+        <v>52</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <f aca="false">SUM(E$3:E46)</f>
+        <v>3</v>
+      </c>
+      <c r="F47" s="2" t="n">
+        <f aca="false">SUM(F$3:F46)</f>
+        <v>6</v>
+      </c>
+      <c r="G47" s="2" t="n">
+        <f aca="false">SUM(G$3:G46)</f>
+        <v>3</v>
+      </c>
+      <c r="H47" s="2" t="n">
+        <f aca="false">SUM(H$3:H46)</f>
+        <v>11</v>
+      </c>
+      <c r="I47" s="2" t="n">
+        <f aca="false">SUM(I$3:I46)</f>
+        <v>1</v>
+      </c>
+      <c r="J47" s="2" t="n">
+        <f aca="false">SUM(J$3:J46)</f>
+        <v>2</v>
+      </c>
+      <c r="K47" s="2" t="n">
+        <f aca="false">SUM(K$3:K46)</f>
+        <v>7</v>
+      </c>
+      <c r="L47" s="2" t="n">
+        <f aca="false">SUM(L$3:L46)</f>
+        <v>2</v>
+      </c>
+      <c r="M47" s="2" t="n">
+        <f aca="false">SUM(M$3:M46)</f>
+        <v>2</v>
+      </c>
+      <c r="N47" s="2" t="n">
+        <f aca="false">SUM(N$3:N46)</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/syria_under_reporting/death_sheet.xlsx
+++ b/src/syria_under_reporting/death_sheet.xlsx
@@ -270,17 +270,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+      <selection pane="bottomLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -335,20 +336,18 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
-        <v>44068</v>
+        <v>44070</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6" t="n">
@@ -358,7 +357,9 @@
       <c r="J2" s="7"/>
       <c r="K2" s="6"/>
       <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
+      <c r="M2" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="N2" s="7"/>
       <c r="O2" s="6" t="n">
         <f aca="false">IF(SUM(D2:N2)=C2,1,0)</f>
@@ -368,16 +369,16 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
-        <v>44067</v>
+        <v>44069</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>3</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -390,7 +391,9 @@
       <c r="K3" s="6"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
+      <c r="N3" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="O3" s="6" t="n">
         <f aca="false">IF(SUM(D3:N3)=C3,1,0)</f>
         <v>1</v>
@@ -399,18 +402,20 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
-        <v>44066</v>
+        <v>44068</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="n">
@@ -418,39 +423,38 @@
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="K4" s="6"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="N4" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="N4" s="7"/>
       <c r="O4" s="6" t="n">
         <f aca="false">IF(SUM(D4:N4)=C4,1,0)</f>
         <v>1</v>
       </c>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
-        <v>44065</v>
+        <v>44067</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="K5" s="6"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -458,59 +462,65 @@
         <f aca="false">IF(SUM(D5:N5)=C5,1,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
-        <v>44064</v>
+        <v>44066</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="I6" s="6"/>
       <c r="J6" s="7"/>
+      <c r="K6" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
+      <c r="N6" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="O6" s="6" t="n">
         <f aca="false">IF(SUM(D6:N6)=C6,1,0)</f>
         <v>1</v>
       </c>
+      <c r="P6" s="2"/>
     </row>
     <row r="7" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
-        <v>44063</v>
+        <v>44065</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6" t="n">
-        <v>1</v>
-      </c>
       <c r="J7" s="7"/>
+      <c r="K7" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="N7" s="7"/>
       <c r="O7" s="6" t="n">
         <f aca="false">IF(SUM(D7:N7)=C7,1,0)</f>
         <v>1</v>
@@ -518,33 +528,24 @@
     </row>
     <row r="8" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
-        <v>44062</v>
+        <v>44064</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="H8" s="6" t="n">
         <v>1</v>
       </c>
       <c r="J8" s="7"/>
-      <c r="K8" s="6" t="n">
-        <v>1</v>
-      </c>
       <c r="L8" s="7"/>
-      <c r="M8" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
       <c r="O8" s="6" t="n">
         <f aca="false">IF(SUM(D8:N8)=C8,1,0)</f>
         <v>1</v>
@@ -552,30 +553,31 @@
     </row>
     <row r="9" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
-        <v>44061</v>
+        <v>44063</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
+      <c r="G9" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="H9" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="J9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J9" s="7"/>
+      <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
+      <c r="N9" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="O9" s="6" t="n">
         <f aca="false">IF(SUM(D9:N9)=C9,1,0)</f>
         <v>1</v>
@@ -583,13 +585,13 @@
     </row>
     <row r="10" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
-        <v>44060</v>
+        <v>44062</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>1</v>
@@ -607,7 +609,9 @@
       <c r="M10" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="N10" s="7"/>
+      <c r="N10" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="O10" s="6" t="n">
         <f aca="false">IF(SUM(D10:N10)=C10,1,0)</f>
         <v>1</v>
@@ -615,29 +619,30 @@
     </row>
     <row r="11" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
-        <v>44059</v>
+        <v>44061</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C11" s="5" t="n">
-        <f aca="false">B11-B12</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
       <c r="H11" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="J11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
       <c r="O11" s="6" t="n">
         <f aca="false">IF(SUM(D11:N11)=C11,1,0)</f>
         <v>1</v>
@@ -645,23 +650,31 @@
     </row>
     <row r="12" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
-        <v>44058</v>
+        <v>44060</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C12" s="5" t="n">
-        <f aca="false">B12-B13</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="I12" s="7"/>
+      <c r="F12" s="5"/>
+      <c r="H12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="7"/>
       <c r="K12" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="6" t="n">
         <f aca="false">IF(SUM(D12:N12)=C12,1,0)</f>
         <v>1</v>
@@ -669,23 +682,27 @@
     </row>
     <row r="13" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
-        <v>44057</v>
+        <v>44059</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C13" s="5" t="n">
         <f aca="false">B13-B14</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6" t="n">
+      <c r="H13" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="6" t="n">
         <v>1</v>
       </c>
       <c r="O13" s="6" t="n">
@@ -695,21 +712,22 @@
     </row>
     <row r="14" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
-        <v>44056</v>
+        <v>44058</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C14" s="5" t="n">
         <f aca="false">B14-B15</f>
         <v>2</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="6" t="n">
-        <v>2</v>
+      <c r="I14" s="7"/>
+      <c r="K14" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="O14" s="6" t="n">
         <f aca="false">IF(SUM(D14:N14)=C14,1,0)</f>
@@ -718,22 +736,25 @@
     </row>
     <row r="15" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
-        <v>44054</v>
+        <v>44057</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C15" s="5" t="n">
         <f aca="false">B15-B16</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="G15" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="O15" s="6" t="n">
         <f aca="false">IF(SUM(D15:N15)=C15,1,0)</f>
         <v>1</v>
@@ -741,19 +762,22 @@
     </row>
     <row r="16" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
-        <v>44052</v>
+        <v>44056</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C16" s="5" t="n">
         <f aca="false">B16-B17</f>
         <v>2</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16" s="5"/>
+      <c r="F16" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="O16" s="6" t="n">
         <f aca="false">IF(SUM(D16:N16)=C16,1,0)</f>
         <v>1</v>
@@ -761,20 +785,20 @@
     </row>
     <row r="17" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
-        <v>44051</v>
+        <v>44054</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C17" s="5" t="n">
         <f aca="false">B17-B18</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="H17" s="6" t="n">
+      <c r="F17" s="6" t="n">
         <v>1</v>
       </c>
       <c r="O17" s="6" t="n">
@@ -784,25 +808,19 @@
     </row>
     <row r="18" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
-        <v>44048</v>
+        <v>44052</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C18" s="5" t="n">
         <f aca="false">B18-B19</f>
         <v>2</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="G18" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="6" t="n">
-        <v>1</v>
-      </c>
       <c r="O18" s="6" t="n">
         <f aca="false">IF(SUM(D18:N18)=C18,1,0)</f>
         <v>1</v>
@@ -810,22 +828,19 @@
     </row>
     <row r="19" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
-        <v>44046</v>
+        <v>44051</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C19" s="5" t="n">
         <f aca="false">B19-B20</f>
         <v>2</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="6" t="n">
-        <v>1</v>
-      </c>
       <c r="H19" s="6" t="n">
         <v>1</v>
       </c>
@@ -836,18 +851,25 @@
     </row>
     <row r="20" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="n">
-        <v>44045</v>
+        <v>44048</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1</v>
+        <f aca="false">B20-B21</f>
+        <v>2</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="5"/>
+      <c r="G20" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="O20" s="6" t="n">
         <f aca="false">IF(SUM(D20:N20)=C20,1,0)</f>
         <v>1</v>
@@ -855,18 +877,25 @@
     </row>
     <row r="21" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="n">
-        <v>44043</v>
+        <v>44046</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C21" s="5" t="n">
+        <f aca="false">B21-B22</f>
         <v>2</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21" s="5"/>
+      <c r="F21" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="O21" s="6" t="n">
         <f aca="false">IF(SUM(D21:N21)=C21,1,0)</f>
         <v>1</v>
@@ -874,13 +903,12 @@
     </row>
     <row r="22" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
-        <v>44042</v>
+        <v>44045</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C22" s="5" t="n">
-        <f aca="false">B22-B23</f>
         <v>1</v>
       </c>
       <c r="D22" s="5" t="n">
@@ -892,90 +920,89 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" s="6" customFormat="true" ht="35.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="n">
-        <v>44039</v>
+        <v>44043</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C23" s="5" t="n">
-        <f aca="false">B23-B24</f>
         <v>2</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="K23" s="6" t="n">
-        <v>1</v>
-      </c>
       <c r="O23" s="6" t="n">
         <f aca="false">IF(SUM(D23:N23)=C23,1,0)</f>
         <v>1</v>
       </c>
-      <c r="P23" s="8" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="24" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="n">
-        <v>44038</v>
+        <v>44042</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C24" s="5" t="n">
         <f aca="false">B24-B25</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="6" t="n">
-        <v>1</v>
-      </c>
       <c r="O24" s="6" t="n">
         <f aca="false">IF(SUM(D24:N24)=C24,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="25" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" s="6" customFormat="true" ht="35.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="n">
-        <v>44037</v>
+        <v>44039</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C25" s="5" t="n">
         <f aca="false">B25-B26</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E25" s="5"/>
+      <c r="K25" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="O25" s="6" t="n">
         <f aca="false">IF(SUM(D25:N25)=C25,1,0)</f>
         <v>1</v>
       </c>
+      <c r="P25" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="26" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="n">
-        <v>44035</v>
+        <v>44038</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C26" s="5" t="n">
         <f aca="false">B26-B27</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26" s="5"/>
+      <c r="F26" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="O26" s="6" t="n">
         <f aca="false">IF(SUM(D26:N26)=C26,1,0)</f>
         <v>1</v>
@@ -983,10 +1010,10 @@
     </row>
     <row r="27" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="n">
-        <v>44034</v>
+        <v>44037</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C27" s="5" t="n">
         <f aca="false">B27-B28</f>
@@ -1003,17 +1030,17 @@
     </row>
     <row r="28" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="n">
-        <v>44033</v>
+        <v>44035</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C28" s="5" t="n">
         <f aca="false">B28-B29</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" s="5"/>
       <c r="O28" s="6" t="n">
@@ -1023,17 +1050,17 @@
     </row>
     <row r="29" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="n">
-        <v>44032</v>
+        <v>44034</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C29" s="5" t="n">
         <f aca="false">B29-B30</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E29" s="5"/>
       <c r="O29" s="6" t="n">
@@ -1043,17 +1070,17 @@
     </row>
     <row r="30" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="n">
-        <v>44029</v>
+        <v>44033</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C30" s="5" t="n">
         <f aca="false">B30-B31</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" s="5"/>
       <c r="O30" s="6" t="n">
@@ -1063,21 +1090,19 @@
     </row>
     <row r="31" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="n">
-        <v>44027</v>
+        <v>44032</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C31" s="5" t="n">
         <f aca="false">B31-B32</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="5" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E31" s="5"/>
       <c r="O31" s="6" t="n">
         <f aca="false">IF(SUM(D31:N31)=C31,1,0)</f>
         <v>1</v>
@@ -1085,17 +1110,17 @@
     </row>
     <row r="32" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="n">
-        <v>44026</v>
+        <v>44029</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C32" s="5" t="n">
         <f aca="false">B32-B33</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" s="5"/>
       <c r="O32" s="6" t="n">
@@ -1105,19 +1130,21 @@
     </row>
     <row r="33" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="n">
-        <v>44025</v>
+        <v>44027</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C33" s="5" t="n">
         <f aca="false">B33-B34</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E33" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="O33" s="6" t="n">
         <f aca="false">IF(SUM(D33:N33)=C33,1,0)</f>
         <v>1</v>
@@ -1125,10 +1152,10 @@
     </row>
     <row r="34" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="n">
-        <v>44022</v>
+        <v>44026</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C34" s="5" t="n">
         <f aca="false">B34-B35</f>
@@ -1145,17 +1172,17 @@
     </row>
     <row r="35" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="n">
-        <v>44018</v>
+        <v>44025</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C35" s="5" t="n">
         <f aca="false">B35-B36</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E35" s="5"/>
       <c r="O35" s="6" t="n">
@@ -1165,21 +1192,19 @@
     </row>
     <row r="36" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="n">
-        <v>44017</v>
+        <v>44022</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C36" s="5" t="n">
         <f aca="false">B36-B37</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="E36" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="E36" s="5"/>
       <c r="O36" s="6" t="n">
         <f aca="false">IF(SUM(D36:N36)=C36,1,0)</f>
         <v>1</v>
@@ -1187,10 +1212,10 @@
     </row>
     <row r="37" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="n">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C37" s="5" t="n">
         <f aca="false">B37-B38</f>
@@ -1207,36 +1232,32 @@
     </row>
     <row r="38" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="n">
-        <v>44009</v>
+        <v>44017</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C38" s="5" t="n">
         <f aca="false">B38-B39</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="K38" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" s="5" t="n">
         <v>1</v>
       </c>
       <c r="O38" s="6" t="n">
         <f aca="false">IF(SUM(D38:N38)=C38,1,0)</f>
         <v>1</v>
       </c>
-      <c r="P38" s="5" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="39" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="n">
-        <v>44008</v>
+        <v>44015</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C39" s="5" t="n">
         <f aca="false">B39-B40</f>
@@ -1253,10 +1274,10 @@
     </row>
     <row r="40" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="n">
-        <v>43999</v>
+        <v>44009</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C40" s="5" t="n">
         <f aca="false">B40-B41</f>
@@ -1266,20 +1287,23 @@
         <v>0</v>
       </c>
       <c r="E40" s="5"/>
-      <c r="I40" s="6" t="n">
+      <c r="K40" s="6" t="n">
         <v>1</v>
       </c>
       <c r="O40" s="6" t="n">
         <f aca="false">IF(SUM(D40:N40)=C40,1,0)</f>
         <v>1</v>
       </c>
+      <c r="P40" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="41" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="n">
-        <v>43984</v>
+        <v>44008</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C41" s="5" t="n">
         <f aca="false">B41-B42</f>
@@ -1296,19 +1320,22 @@
     </row>
     <row r="42" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="n">
-        <v>43982</v>
+        <v>43999</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C42" s="5" t="n">
         <f aca="false">B42-B43</f>
         <v>1</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="5"/>
+      <c r="I42" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="O42" s="6" t="n">
         <f aca="false">IF(SUM(D42:N42)=C42,1,0)</f>
         <v>1</v>
@@ -1316,10 +1343,10 @@
     </row>
     <row r="43" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="n">
-        <v>43973</v>
+        <v>43984</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C43" s="5" t="n">
         <f aca="false">B43-B44</f>
@@ -1336,12 +1363,13 @@
     </row>
     <row r="44" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="n">
-        <v>43940</v>
+        <v>43982</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C44" s="5" t="n">
+        <f aca="false">B44-B45</f>
         <v>1</v>
       </c>
       <c r="D44" s="5" t="n">
@@ -1355,20 +1383,19 @@
     </row>
     <row r="45" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="n">
-        <v>43920</v>
+        <v>43973</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C45" s="5" t="n">
+        <f aca="false">B45-B46</f>
         <v>1</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="5" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E45" s="5"/>
       <c r="O45" s="6" t="n">
         <f aca="false">IF(SUM(D45:N45)=C45,1,0)</f>
         <v>1</v>
@@ -1376,71 +1403,111 @@
     </row>
     <row r="46" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="n">
-        <v>43919</v>
-      </c>
-      <c r="B46" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" s="6" t="n">
-        <v>1</v>
-      </c>
+        <v>43940</v>
+      </c>
+      <c r="B46" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C46" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="5"/>
       <c r="O46" s="6" t="n">
         <f aca="false">IF(SUM(D46:N46)=C46,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2" t="n">
-        <f aca="false">SUM(C$3:C46)</f>
+    <row r="47" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="n">
+        <v>43920</v>
+      </c>
+      <c r="B47" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C47" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O47" s="6" t="n">
+        <f aca="false">IF(SUM(D47:N47)=C47,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="n">
+        <v>43919</v>
+      </c>
+      <c r="B48" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O48" s="6" t="n">
+        <f aca="false">IF(SUM(D48:N48)=C48,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2" t="n">
+        <f aca="false">SUM(C$5:C48)</f>
         <v>92</v>
       </c>
-      <c r="D47" s="2" t="n">
-        <f aca="false">SUM(D$3:D46)</f>
+      <c r="D49" s="2" t="n">
+        <f aca="false">SUM(D$5:D48)</f>
         <v>52</v>
       </c>
-      <c r="E47" s="2" t="n">
-        <f aca="false">SUM(E$3:E46)</f>
+      <c r="E49" s="2" t="n">
+        <f aca="false">SUM(E$5:E48)</f>
         <v>3</v>
       </c>
-      <c r="F47" s="2" t="n">
-        <f aca="false">SUM(F$3:F46)</f>
+      <c r="F49" s="2" t="n">
+        <f aca="false">SUM(F$5:F48)</f>
         <v>6</v>
       </c>
-      <c r="G47" s="2" t="n">
-        <f aca="false">SUM(G$3:G46)</f>
+      <c r="G49" s="2" t="n">
+        <f aca="false">SUM(G$5:G48)</f>
         <v>3</v>
       </c>
-      <c r="H47" s="2" t="n">
-        <f aca="false">SUM(H$3:H46)</f>
+      <c r="H49" s="2" t="n">
+        <f aca="false">SUM(H$5:H48)</f>
         <v>11</v>
       </c>
-      <c r="I47" s="2" t="n">
-        <f aca="false">SUM(I$3:I46)</f>
-        <v>1</v>
-      </c>
-      <c r="J47" s="2" t="n">
-        <f aca="false">SUM(J$3:J46)</f>
-        <v>2</v>
-      </c>
-      <c r="K47" s="2" t="n">
-        <f aca="false">SUM(K$3:K46)</f>
+      <c r="I49" s="2" t="n">
+        <f aca="false">SUM(I$5:I48)</f>
+        <v>1</v>
+      </c>
+      <c r="J49" s="2" t="n">
+        <f aca="false">SUM(J$5:J48)</f>
+        <v>2</v>
+      </c>
+      <c r="K49" s="2" t="n">
+        <f aca="false">SUM(K$5:K48)</f>
         <v>7</v>
       </c>
-      <c r="L47" s="2" t="n">
-        <f aca="false">SUM(L$3:L46)</f>
-        <v>2</v>
-      </c>
-      <c r="M47" s="2" t="n">
-        <f aca="false">SUM(M$3:M46)</f>
-        <v>2</v>
-      </c>
-      <c r="N47" s="2" t="n">
-        <f aca="false">SUM(N$3:N46)</f>
+      <c r="L49" s="2" t="n">
+        <f aca="false">SUM(L$5:L48)</f>
+        <v>2</v>
+      </c>
+      <c r="M49" s="2" t="n">
+        <f aca="false">SUM(M$5:M48)</f>
+        <v>2</v>
+      </c>
+      <c r="N49" s="2" t="n">
+        <f aca="false">SUM(N$5:N48)</f>
         <v>3</v>
       </c>
     </row>

--- a/src/syria_under_reporting/death_sheet.xlsx
+++ b/src/syria_under_reporting/death_sheet.xlsx
@@ -78,7 +78,7 @@
         <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="128"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1 Aleppo *1</t>
     </r>
@@ -88,7 +88,7 @@
         <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="128"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">st</t>
     </r>
@@ -97,7 +97,7 @@
         <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="128"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> recorded Aleppo case</t>
     </r>
@@ -111,7 +111,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -138,7 +138,7 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="128"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -146,19 +146,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
@@ -171,7 +158,7 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="128"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -229,15 +216,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -245,7 +232,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -270,17 +257,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.59"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -336,18 +323,20 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
-        <v>44070</v>
+        <v>44076</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6" t="n">
@@ -356,7 +345,9 @@
       <c r="I2" s="6"/>
       <c r="J2" s="7"/>
       <c r="K2" s="6"/>
-      <c r="L2" s="7"/>
+      <c r="L2" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="M2" s="7" t="n">
         <v>1</v>
       </c>
@@ -369,26 +360,26 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
-        <v>44069</v>
+        <v>44075</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="6"/>
+      <c r="K3" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7" t="n">
@@ -402,10 +393,10 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
-        <v>44068</v>
+        <v>44074</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>3</v>
@@ -413,20 +404,20 @@
       <c r="D4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="7"/>
       <c r="K4" s="6"/>
       <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
+      <c r="M4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="O4" s="6" t="n">
         <f aca="false">IF(SUM(D4:N4)=C4,1,0)</f>
         <v>1</v>
@@ -435,29 +426,31 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
-        <v>44067</v>
+        <v>44073</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>3</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="6"/>
+      <c r="K5" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="O5" s="6" t="n">
         <f aca="false">IF(SUM(D5:N5)=C5,1,0)</f>
         <v>1</v>
@@ -466,18 +459,20 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
-        <v>44066</v>
+        <v>44072</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="n">
@@ -485,94 +480,104 @@
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="K6" s="6"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="N6" s="7"/>
       <c r="O6" s="6" t="n">
         <f aca="false">IF(SUM(D6:N6)=C6,1,0)</f>
         <v>1</v>
       </c>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
-        <v>44065</v>
+        <v>44071</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="K7" s="6"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
+      <c r="N7" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="O7" s="6" t="n">
         <f aca="false">IF(SUM(D7:N7)=C7,1,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
-        <v>44064</v>
+        <v>44070</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="I8" s="6"/>
       <c r="J8" s="7"/>
+      <c r="K8" s="6"/>
       <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+      <c r="M8" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="N8" s="7"/>
       <c r="O8" s="6" t="n">
         <f aca="false">IF(SUM(D8:N8)=C8,1,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
-        <v>44063</v>
+        <v>44069</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="G9" s="6"/>
       <c r="H9" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="I9" s="6"/>
       <c r="J9" s="7"/>
+      <c r="K9" s="6"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7" t="n">
@@ -582,78 +587,78 @@
         <f aca="false">IF(SUM(D9:N9)=C9,1,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
-        <v>44062</v>
+        <v>44068</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="I10" s="6"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="K10" s="6"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
       <c r="O10" s="6" t="n">
         <f aca="false">IF(SUM(D10:N10)=C10,1,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
-        <v>44061</v>
+        <v>44067</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="J11" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="6" t="n">
         <f aca="false">IF(SUM(D11:N11)=C11,1,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
-        <v>44060</v>
+        <v>44066</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C12" s="5" t="n">
         <v>4</v>
@@ -663,48 +668,48 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="I12" s="6"/>
       <c r="J12" s="7"/>
       <c r="K12" s="6" t="n">
         <v>1</v>
       </c>
       <c r="L12" s="7"/>
-      <c r="M12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="O12" s="6" t="n">
         <f aca="false">IF(SUM(D12:N12)=C12,1,0)</f>
         <v>1</v>
       </c>
+      <c r="P12" s="2"/>
     </row>
     <row r="13" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
-        <v>44059</v>
+        <v>44065</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C13" s="5" t="n">
-        <f aca="false">B13-B14</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="H13" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="F13" s="5"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
       <c r="O13" s="6" t="n">
         <f aca="false">IF(SUM(D13:N13)=C13,1,0)</f>
         <v>1</v>
@@ -712,23 +717,24 @@
     </row>
     <row r="14" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
-        <v>44058</v>
+        <v>44064</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C14" s="5" t="n">
-        <f aca="false">B14-B15</f>
-        <v>2</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="I14" s="7"/>
-      <c r="K14" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="F14" s="5"/>
+      <c r="H14" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
       <c r="O14" s="6" t="n">
         <f aca="false">IF(SUM(D14:N14)=C14,1,0)</f>
         <v>1</v>
@@ -736,23 +742,29 @@
     </row>
     <row r="15" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
-        <v>44057</v>
+        <v>44063</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C15" s="5" t="n">
-        <f aca="false">B15-B16</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="F15" s="5"/>
       <c r="G15" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7" t="n">
         <v>1</v>
       </c>
       <c r="O15" s="6" t="n">
@@ -762,21 +774,32 @@
     </row>
     <row r="16" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
-        <v>44056</v>
+        <v>44062</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="C16" s="5" t="n">
-        <f aca="false">B16-B17</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="6" t="n">
-        <v>2</v>
+      <c r="F16" s="5"/>
+      <c r="H16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="O16" s="6" t="n">
         <f aca="false">IF(SUM(D16:N16)=C16,1,0)</f>
@@ -785,22 +808,30 @@
     </row>
     <row r="17" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
-        <v>44054</v>
+        <v>44061</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C17" s="5" t="n">
-        <f aca="false">B17-B18</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="F17" s="5"/>
+      <c r="H17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
       <c r="O17" s="6" t="n">
         <f aca="false">IF(SUM(D17:N17)=C17,1,0)</f>
         <v>1</v>
@@ -808,19 +839,31 @@
     </row>
     <row r="18" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
-        <v>44052</v>
+        <v>44060</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C18" s="5" t="n">
-        <f aca="false">B18-B19</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="H18" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" s="7"/>
       <c r="O18" s="6" t="n">
         <f aca="false">IF(SUM(D18:N18)=C18,1,0)</f>
         <v>1</v>
@@ -828,14 +871,14 @@
     </row>
     <row r="19" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
-        <v>44051</v>
+        <v>44059</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C19" s="5" t="n">
         <f aca="false">B19-B20</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>1</v>
@@ -844,6 +887,13 @@
       <c r="H19" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="O19" s="6" t="n">
         <f aca="false">IF(SUM(D19:N19)=C19,1,0)</f>
         <v>1</v>
@@ -851,23 +901,21 @@
     </row>
     <row r="20" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="n">
-        <v>44048</v>
+        <v>44058</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C20" s="5" t="n">
         <f aca="false">B20-B21</f>
         <v>2</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="G20" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="6" t="n">
+      <c r="I20" s="7"/>
+      <c r="K20" s="6" t="n">
         <v>1</v>
       </c>
       <c r="O20" s="6" t="n">
@@ -877,23 +925,23 @@
     </row>
     <row r="21" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="n">
-        <v>44046</v>
+        <v>44057</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C21" s="5" t="n">
         <f aca="false">B21-B22</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H21" s="6" t="n">
+      <c r="G21" s="6" t="n">
         <v>1</v>
       </c>
       <c r="O21" s="6" t="n">
@@ -903,18 +951,22 @@
     </row>
     <row r="22" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
-        <v>44045</v>
+        <v>44056</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>1</v>
+        <f aca="false">B22-B23</f>
+        <v>2</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="5"/>
+      <c r="F22" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="O22" s="6" t="n">
         <f aca="false">IF(SUM(D22:N22)=C22,1,0)</f>
         <v>1</v>
@@ -922,18 +974,22 @@
     </row>
     <row r="23" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="n">
-        <v>44043</v>
+        <v>44054</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2</v>
+        <f aca="false">B23-B24</f>
+        <v>1</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E23" s="5"/>
+      <c r="F23" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="O23" s="6" t="n">
         <f aca="false">IF(SUM(D23:N23)=C23,1,0)</f>
         <v>1</v>
@@ -941,17 +997,17 @@
     </row>
     <row r="24" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="n">
-        <v>44042</v>
+        <v>44052</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C24" s="5" t="n">
         <f aca="false">B24-B25</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="5"/>
       <c r="O24" s="6" t="n">
@@ -959,12 +1015,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" s="6" customFormat="true" ht="35.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="n">
-        <v>44039</v>
+        <v>44051</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C25" s="5" t="n">
         <f aca="false">B25-B26</f>
@@ -974,33 +1030,33 @@
         <v>1</v>
       </c>
       <c r="E25" s="5"/>
-      <c r="K25" s="6" t="n">
+      <c r="H25" s="6" t="n">
         <v>1</v>
       </c>
       <c r="O25" s="6" t="n">
         <f aca="false">IF(SUM(D25:N25)=C25,1,0)</f>
         <v>1</v>
       </c>
-      <c r="P25" s="8" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="26" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="n">
-        <v>44038</v>
+        <v>44048</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C26" s="5" t="n">
         <f aca="false">B26-B27</f>
         <v>2</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="5"/>
-      <c r="F26" s="6" t="n">
+      <c r="G26" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="6" t="n">
         <v>1</v>
       </c>
       <c r="O26" s="6" t="n">
@@ -1010,19 +1066,25 @@
     </row>
     <row r="27" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="n">
-        <v>44037</v>
+        <v>44046</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C27" s="5" t="n">
         <f aca="false">B27-B28</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="5"/>
+      <c r="F27" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="O27" s="6" t="n">
         <f aca="false">IF(SUM(D27:N27)=C27,1,0)</f>
         <v>1</v>
@@ -1030,17 +1092,16 @@
     </row>
     <row r="28" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="n">
-        <v>44035</v>
+        <v>44045</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C28" s="5" t="n">
-        <f aca="false">B28-B29</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28" s="5"/>
       <c r="O28" s="6" t="n">
@@ -1050,17 +1111,16 @@
     </row>
     <row r="29" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="n">
-        <v>44034</v>
+        <v>44043</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C29" s="5" t="n">
-        <f aca="false">B29-B30</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="5"/>
       <c r="O29" s="6" t="n">
@@ -1070,17 +1130,17 @@
     </row>
     <row r="30" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="n">
-        <v>44033</v>
+        <v>44042</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C30" s="5" t="n">
         <f aca="false">B30-B31</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" s="5"/>
       <c r="O30" s="6" t="n">
@@ -1088,41 +1148,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" s="6" customFormat="true" ht="35.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="n">
-        <v>44032</v>
+        <v>44039</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C31" s="5" t="n">
         <f aca="false">B31-B32</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E31" s="5"/>
+      <c r="K31" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="O31" s="6" t="n">
         <f aca="false">IF(SUM(D31:N31)=C31,1,0)</f>
         <v>1</v>
       </c>
+      <c r="P31" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="32" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="n">
-        <v>44029</v>
+        <v>44038</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C32" s="5" t="n">
         <f aca="false">B32-B33</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E32" s="5"/>
+      <c r="F32" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="O32" s="6" t="n">
         <f aca="false">IF(SUM(D32:N32)=C32,1,0)</f>
         <v>1</v>
@@ -1130,21 +1199,19 @@
     </row>
     <row r="33" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="n">
-        <v>44027</v>
+        <v>44037</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C33" s="5" t="n">
         <f aca="false">B33-B34</f>
         <v>1</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="5" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E33" s="5"/>
       <c r="O33" s="6" t="n">
         <f aca="false">IF(SUM(D33:N33)=C33,1,0)</f>
         <v>1</v>
@@ -1152,17 +1219,17 @@
     </row>
     <row r="34" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="n">
-        <v>44026</v>
+        <v>44035</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C34" s="5" t="n">
         <f aca="false">B34-B35</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" s="5"/>
       <c r="O34" s="6" t="n">
@@ -1172,17 +1239,17 @@
     </row>
     <row r="35" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="n">
-        <v>44025</v>
+        <v>44034</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C35" s="5" t="n">
         <f aca="false">B35-B36</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E35" s="5"/>
       <c r="O35" s="6" t="n">
@@ -1192,10 +1259,10 @@
     </row>
     <row r="36" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="n">
-        <v>44022</v>
+        <v>44033</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C36" s="5" t="n">
         <f aca="false">B36-B37</f>
@@ -1212,17 +1279,17 @@
     </row>
     <row r="37" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="n">
-        <v>44018</v>
+        <v>44032</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C37" s="5" t="n">
         <f aca="false">B37-B38</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E37" s="5"/>
       <c r="O37" s="6" t="n">
@@ -1232,21 +1299,19 @@
     </row>
     <row r="38" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="n">
-        <v>44017</v>
+        <v>44029</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C38" s="5" t="n">
         <f aca="false">B38-B39</f>
         <v>3</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E38" s="5" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E38" s="5"/>
       <c r="O38" s="6" t="n">
         <f aca="false">IF(SUM(D38:N38)=C38,1,0)</f>
         <v>1</v>
@@ -1254,19 +1319,21 @@
     </row>
     <row r="39" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="n">
-        <v>44015</v>
+        <v>44027</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C39" s="5" t="n">
         <f aca="false">B39-B40</f>
         <v>1</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="O39" s="6" t="n">
         <f aca="false">IF(SUM(D39:N39)=C39,1,0)</f>
         <v>1</v>
@@ -1274,43 +1341,37 @@
     </row>
     <row r="40" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="n">
-        <v>44009</v>
+        <v>44026</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C40" s="5" t="n">
         <f aca="false">B40-B41</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E40" s="5"/>
-      <c r="K40" s="6" t="n">
-        <v>1</v>
-      </c>
       <c r="O40" s="6" t="n">
         <f aca="false">IF(SUM(D40:N40)=C40,1,0)</f>
         <v>1</v>
       </c>
-      <c r="P40" s="5" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="41" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="n">
-        <v>44008</v>
+        <v>44025</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C41" s="5" t="n">
         <f aca="false">B41-B42</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E41" s="5"/>
       <c r="O41" s="6" t="n">
@@ -1320,22 +1381,19 @@
     </row>
     <row r="42" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="n">
-        <v>43999</v>
+        <v>44022</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C42" s="5" t="n">
         <f aca="false">B42-B43</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E42" s="5"/>
-      <c r="I42" s="6" t="n">
-        <v>1</v>
-      </c>
       <c r="O42" s="6" t="n">
         <f aca="false">IF(SUM(D42:N42)=C42,1,0)</f>
         <v>1</v>
@@ -1343,10 +1401,10 @@
     </row>
     <row r="43" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="n">
-        <v>43984</v>
+        <v>44018</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C43" s="5" t="n">
         <f aca="false">B43-B44</f>
@@ -1363,19 +1421,21 @@
     </row>
     <row r="44" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="n">
-        <v>43982</v>
+        <v>44017</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C44" s="5" t="n">
         <f aca="false">B44-B45</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="E44" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="O44" s="6" t="n">
         <f aca="false">IF(SUM(D44:N44)=C44,1,0)</f>
         <v>1</v>
@@ -1383,10 +1443,10 @@
     </row>
     <row r="45" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="n">
-        <v>43973</v>
+        <v>44015</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C45" s="5" t="n">
         <f aca="false">B45-B46</f>
@@ -1403,39 +1463,45 @@
     </row>
     <row r="46" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="n">
-        <v>43940</v>
+        <v>44009</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C46" s="5" t="n">
+        <f aca="false">B46-B47</f>
         <v>1</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" s="5"/>
+      <c r="K46" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="O46" s="6" t="n">
         <f aca="false">IF(SUM(D46:N46)=C46,1,0)</f>
         <v>1</v>
       </c>
+      <c r="P46" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="47" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="n">
-        <v>43920</v>
+        <v>44008</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C47" s="5" t="n">
+        <f aca="false">B47-B48</f>
         <v>1</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" s="5" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E47" s="5"/>
       <c r="O47" s="6" t="n">
         <f aca="false">IF(SUM(D47:N47)=C47,1,0)</f>
         <v>1</v>
@@ -1443,15 +1509,20 @@
     </row>
     <row r="48" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="n">
-        <v>43919</v>
-      </c>
-      <c r="B48" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" s="6" t="n">
+        <v>43999</v>
+      </c>
+      <c r="B48" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C48" s="5" t="n">
+        <f aca="false">B48-B49</f>
+        <v>1</v>
+      </c>
+      <c r="D48" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="I48" s="6" t="n">
         <v>1</v>
       </c>
       <c r="O48" s="6" t="n">
@@ -1459,56 +1530,174 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2" t="n">
-        <f aca="false">SUM(C$5:C48)</f>
-        <v>92</v>
-      </c>
-      <c r="D49" s="2" t="n">
-        <f aca="false">SUM(D$5:D48)</f>
-        <v>52</v>
-      </c>
-      <c r="E49" s="2" t="n">
-        <f aca="false">SUM(E$5:E48)</f>
-        <v>3</v>
-      </c>
-      <c r="F49" s="2" t="n">
-        <f aca="false">SUM(F$5:F48)</f>
+    <row r="49" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="n">
+        <v>43984</v>
+      </c>
+      <c r="B49" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="G49" s="2" t="n">
-        <f aca="false">SUM(G$5:G48)</f>
-        <v>3</v>
-      </c>
-      <c r="H49" s="2" t="n">
-        <f aca="false">SUM(H$5:H48)</f>
-        <v>11</v>
-      </c>
-      <c r="I49" s="2" t="n">
-        <f aca="false">SUM(I$5:I48)</f>
-        <v>1</v>
-      </c>
-      <c r="J49" s="2" t="n">
-        <f aca="false">SUM(J$5:J48)</f>
-        <v>2</v>
-      </c>
-      <c r="K49" s="2" t="n">
-        <f aca="false">SUM(K$5:K48)</f>
-        <v>7</v>
-      </c>
-      <c r="L49" s="2" t="n">
-        <f aca="false">SUM(L$5:L48)</f>
-        <v>2</v>
-      </c>
-      <c r="M49" s="2" t="n">
-        <f aca="false">SUM(M$5:M48)</f>
-        <v>2</v>
-      </c>
-      <c r="N49" s="2" t="n">
-        <f aca="false">SUM(N$5:N48)</f>
-        <v>3</v>
+      <c r="C49" s="5" t="n">
+        <f aca="false">B49-B50</f>
+        <v>1</v>
+      </c>
+      <c r="D49" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="O49" s="6" t="n">
+        <f aca="false">IF(SUM(D49:N49)=C49,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B50" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C50" s="5" t="n">
+        <f aca="false">B50-B51</f>
+        <v>1</v>
+      </c>
+      <c r="D50" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="O50" s="6" t="n">
+        <f aca="false">IF(SUM(D50:N50)=C50,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="n">
+        <v>43973</v>
+      </c>
+      <c r="B51" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C51" s="5" t="n">
+        <f aca="false">B51-B52</f>
+        <v>1</v>
+      </c>
+      <c r="D51" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="O51" s="6" t="n">
+        <f aca="false">IF(SUM(D51:N51)=C51,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="n">
+        <v>43940</v>
+      </c>
+      <c r="B52" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C52" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="O52" s="6" t="n">
+        <f aca="false">IF(SUM(D52:N52)=C52,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="n">
+        <v>43920</v>
+      </c>
+      <c r="B53" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C53" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O53" s="6" t="n">
+        <f aca="false">IF(SUM(D53:N53)=C53,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="n">
+        <v>43919</v>
+      </c>
+      <c r="B54" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O54" s="6" t="n">
+        <f aca="false">IF(SUM(D54:N54)=C54,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2" t="n">
+        <f aca="false">SUM(C$2:C54)</f>
+        <v>120</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <f aca="false">SUM(D$2:D54)</f>
+        <v>60</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <f aca="false">SUM(E$2:E54)</f>
+        <v>6</v>
+      </c>
+      <c r="F55" s="2" t="n">
+        <f aca="false">SUM(F$2:F54)</f>
+        <v>6</v>
+      </c>
+      <c r="G55" s="2" t="n">
+        <f aca="false">SUM(G$2:G54)</f>
+        <v>3</v>
+      </c>
+      <c r="H55" s="2" t="n">
+        <f aca="false">SUM(H$2:H54)</f>
+        <v>17</v>
+      </c>
+      <c r="I55" s="2" t="n">
+        <f aca="false">SUM(I$2:I54)</f>
+        <v>1</v>
+      </c>
+      <c r="J55" s="2" t="n">
+        <f aca="false">SUM(J$2:J54)</f>
+        <v>2</v>
+      </c>
+      <c r="K55" s="2" t="n">
+        <f aca="false">SUM(K$2:K54)</f>
+        <v>9</v>
+      </c>
+      <c r="L55" s="2" t="n">
+        <f aca="false">SUM(L$2:L54)</f>
+        <v>3</v>
+      </c>
+      <c r="M55" s="2" t="n">
+        <f aca="false">SUM(M$2:M54)</f>
+        <v>5</v>
+      </c>
+      <c r="N55" s="2" t="n">
+        <f aca="false">SUM(N$2:N54)</f>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/syria_under_reporting/death_sheet.xlsx
+++ b/src/syria_under_reporting/death_sheet.xlsx
@@ -267,7 +267,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="N12" activeCellId="0" sqref="N12"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -328,7 +328,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
-        <v>44052</v>
+        <v>44083</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>143</v>

--- a/src/syria_under_reporting/death_sheet.xlsx
+++ b/src/syria_under_reporting/death_sheet.xlsx
@@ -107,10 +107,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -229,7 +228,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -262,12 +261,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P62"/>
+  <dimension ref="A1:P72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -328,13 +327,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
-        <v>44083</v>
+        <v>44093</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>1</v>
@@ -342,29 +341,24 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="2"/>
+      <c r="K2" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="5" t="n">
-        <f aca="false">IF(SUM(D2:N2)=C2,1,0)</f>
-        <v>1</v>
-      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
       <c r="P2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
-        <v>44082</v>
+        <v>44092</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>3</v>
@@ -374,7 +368,9 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="3"/>
@@ -383,28 +379,21 @@
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="5" t="n">
-        <f aca="false">IF(SUM(D3:N3)=C3,1,0)</f>
-        <v>1</v>
-      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
       <c r="P3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
-        <v>44081</v>
+        <v>44091</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="2"/>
@@ -413,28 +402,27 @@
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="2"/>
+      <c r="K4" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="5" t="n">
-        <f aca="false">IF(SUM(D4:N4)=C4,1,0)</f>
-        <v>1</v>
-      </c>
+      <c r="O4" s="3"/>
       <c r="P4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
-        <v>44080</v>
+      <c r="A5" s="4" t="n">
+        <v>44090</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -450,24 +438,21 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="5" t="n">
-        <f aca="false">IF(SUM(D5:N5)=C5,1,0)</f>
-        <v>1</v>
-      </c>
+      <c r="O5" s="3"/>
       <c r="P5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
-        <v>44079</v>
+      <c r="A6" s="4" t="n">
+        <v>44089</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -475,74 +460,70 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="2"/>
+      <c r="K6" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="5" t="n">
-        <f aca="false">IF(SUM(D6:N6)=C6,1,0)</f>
-        <v>1</v>
-      </c>
+      <c r="O6" s="3"/>
       <c r="P6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
-        <v>44078</v>
+      <c r="A7" s="4" t="n">
+        <v>44088</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="3"/>
       <c r="K7" s="2"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="3" t="n">
-        <v>1</v>
-      </c>
+      <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="5" t="n">
-        <f aca="false">IF(SUM(D7:N7)=C7,1,0)</f>
-        <v>1</v>
-      </c>
+      <c r="O7" s="3"/>
       <c r="P7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
-        <v>44077</v>
+      <c r="A8" s="4" t="n">
+        <v>44087</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="3" t="n">
-        <v>1</v>
-      </c>
+      <c r="K8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="5" t="n">
@@ -552,36 +533,30 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
-        <v>44076</v>
-      </c>
-      <c r="B9" s="7" t="n">
-        <v>120</v>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="8"/>
+      <c r="A9" s="4" t="n">
+        <v>44086</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
       <c r="O9" s="5" t="n">
         <f aca="false">IF(SUM(D9:N9)=C9,1,0)</f>
         <v>1</v>
@@ -589,32 +564,30 @@
       <c r="P9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
-        <v>44075</v>
-      </c>
-      <c r="B10" s="7" t="n">
-        <v>116</v>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8" t="n">
-        <v>1</v>
-      </c>
+      <c r="A10" s="4" t="n">
+        <v>44085</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
       <c r="O10" s="5" t="n">
         <f aca="false">IF(SUM(D10:N10)=C10,1,0)</f>
         <v>1</v>
@@ -622,30 +595,32 @@
       <c r="P10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
-        <v>44074</v>
-      </c>
-      <c r="B11" s="7" t="n">
-        <v>112</v>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D11" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="8" t="n">
+      <c r="A11" s="4" t="n">
+        <v>44084</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3" t="n">
         <v>1</v>
       </c>
       <c r="O11" s="5" t="n">
@@ -655,30 +630,30 @@
       <c r="P11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
-        <v>44073</v>
-      </c>
-      <c r="B12" s="7" t="n">
-        <v>109</v>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8" t="n">
+      <c r="A12" s="4" t="n">
+        <v>44083</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3" t="n">
         <v>1</v>
       </c>
       <c r="O12" s="5" t="n">
@@ -688,32 +663,32 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="n">
-        <v>44072</v>
-      </c>
-      <c r="B13" s="7" t="n">
-        <v>106</v>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
+      <c r="A13" s="4" t="n">
+        <v>44082</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="O13" s="5" t="n">
         <f aca="false">IF(SUM(D13:N13)=C13,1,0)</f>
         <v>1</v>
@@ -721,32 +696,30 @@
       <c r="P13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
-        <v>44071</v>
-      </c>
-      <c r="B14" s="7" t="n">
-        <v>103</v>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8" t="n">
-        <v>1</v>
-      </c>
+      <c r="A14" s="4" t="n">
+        <v>44081</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
       <c r="O14" s="5" t="n">
         <f aca="false">IF(SUM(D14:N14)=C14,1,0)</f>
         <v>1</v>
@@ -755,31 +728,31 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
-        <v>44070</v>
-      </c>
-      <c r="B15" s="7" t="n">
-        <v>100</v>
-      </c>
-      <c r="C15" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" s="8"/>
+        <v>44080</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
       <c r="O15" s="5" t="n">
         <f aca="false">IF(SUM(D15:N15)=C15,1,0)</f>
         <v>1</v>
@@ -788,31 +761,27 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
-        <v>44069</v>
-      </c>
-      <c r="B16" s="7" t="n">
-        <v>98</v>
-      </c>
-      <c r="C16" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8" t="n">
-        <v>1</v>
-      </c>
+        <v>44079</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
       <c r="O16" s="5" t="n">
         <f aca="false">IF(SUM(D16:N16)=C16,1,0)</f>
         <v>1</v>
@@ -821,31 +790,29 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
-        <v>44068</v>
-      </c>
-      <c r="B17" s="7" t="n">
-        <v>95</v>
-      </c>
-      <c r="C17" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
+        <v>44078</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="3"/>
       <c r="O17" s="5" t="n">
         <f aca="false">IF(SUM(D17:N17)=C17,1,0)</f>
         <v>1</v>
@@ -854,29 +821,33 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
-        <v>44067</v>
-      </c>
-      <c r="B18" s="7" t="n">
-        <v>92</v>
-      </c>
-      <c r="C18" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
+        <v>44077</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
       <c r="O18" s="5" t="n">
         <f aca="false">IF(SUM(D18:N18)=C18,1,0)</f>
         <v>1</v>
@@ -885,18 +856,20 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
-        <v>44066</v>
+        <v>44076</v>
       </c>
       <c r="B19" s="7" t="n">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="C19" s="7" t="n">
         <v>4</v>
       </c>
       <c r="D19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="F19" s="7"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5" t="n">
@@ -904,94 +877,108 @@
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8" t="n">
-        <v>1</v>
-      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="8"/>
       <c r="O19" s="5" t="n">
         <f aca="false">IF(SUM(D19:N19)=C19,1,0)</f>
         <v>1</v>
       </c>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
-        <v>44065</v>
+        <v>44075</v>
       </c>
       <c r="B20" s="7" t="n">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="C20" s="7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
       <c r="J20" s="8"/>
       <c r="K20" s="5" t="n">
         <v>1</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
+      <c r="N20" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="O20" s="5" t="n">
         <f aca="false">IF(SUM(D20:N20)=C20,1,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
-        <v>44064</v>
+        <v>44074</v>
       </c>
       <c r="B21" s="7" t="n">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="C21" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D21" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="H21" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
       <c r="J21" s="8"/>
+      <c r="K21" s="5"/>
       <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
+      <c r="M21" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="O21" s="5" t="n">
         <f aca="false">IF(SUM(D21:N21)=C21,1,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
-        <v>44063</v>
+        <v>44073</v>
       </c>
       <c r="B22" s="7" t="n">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="C22" s="7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7" t="n">
         <v>1</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
       <c r="J22" s="8"/>
+      <c r="K22" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8" t="n">
@@ -1001,94 +988,96 @@
         <f aca="false">IF(SUM(D22:N22)=C22,1,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
-        <v>44062</v>
+        <v>44072</v>
       </c>
       <c r="B23" s="7" t="n">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="C23" s="7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="7"/>
+      <c r="E23" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="F23" s="7"/>
+      <c r="G23" s="5"/>
       <c r="H23" s="5" t="n">
         <v>1</v>
       </c>
+      <c r="I23" s="5"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="K23" s="5"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" s="8" t="n">
-        <v>1</v>
-      </c>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
       <c r="O23" s="5" t="n">
         <f aca="false">IF(SUM(D23:N23)=C23,1,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
-        <v>44061</v>
+        <v>44071</v>
       </c>
       <c r="B24" s="7" t="n">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="C24" s="7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
+      <c r="G24" s="5"/>
       <c r="H24" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J24" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" s="8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="8"/>
       <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
+      <c r="N24" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="O24" s="5" t="n">
         <f aca="false">IF(SUM(D24:N24)=C24,1,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
-        <v>44060</v>
+        <v>44070</v>
       </c>
       <c r="B25" s="7" t="n">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="C25" s="7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
+      <c r="G25" s="5"/>
       <c r="H25" s="5" t="n">
         <v>1</v>
       </c>
+      <c r="I25" s="5"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="K25" s="5"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8" t="n">
         <v>1</v>
@@ -1098,128 +1087,162 @@
         <f aca="false">IF(SUM(D25:N25)=C25,1,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
-        <v>44059</v>
+        <v>44069</v>
       </c>
       <c r="B26" s="7" t="n">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="C26" s="7" t="n">
-        <f aca="false">B26-B27</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="7" t="n">
         <v>1</v>
       </c>
       <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="5"/>
       <c r="H26" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L26" s="5" t="n">
+      <c r="I26" s="5"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8" t="n">
         <v>1</v>
       </c>
       <c r="O26" s="5" t="n">
         <f aca="false">IF(SUM(D26:N26)=C26,1,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
-        <v>44058</v>
+        <v>44068</v>
       </c>
       <c r="B27" s="7" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="C27" s="7" t="n">
-        <f aca="false">B27-B28</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="I27" s="8"/>
-      <c r="K27" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="E27" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
       <c r="O27" s="5" t="n">
         <f aca="false">IF(SUM(D27:N27)=C27,1,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
-        <v>44057</v>
+        <v>44067</v>
       </c>
       <c r="B28" s="7" t="n">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="C28" s="7" t="n">
-        <f aca="false">B28-B29</f>
         <v>3</v>
       </c>
       <c r="D28" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="7"/>
-      <c r="F28" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
       <c r="O28" s="5" t="n">
         <f aca="false">IF(SUM(D28:N28)=C28,1,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="29" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
-        <v>44056</v>
+        <v>44066</v>
       </c>
       <c r="B29" s="7" t="n">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C29" s="7" t="n">
-        <f aca="false">B29-B30</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="7"/>
-      <c r="F29" s="5" t="n">
-        <v>2</v>
+      <c r="F29" s="7"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8" t="n">
+        <v>1</v>
       </c>
       <c r="O29" s="5" t="n">
         <f aca="false">IF(SUM(D29:N29)=C29,1,0)</f>
         <v>1</v>
       </c>
+      <c r="P29" s="2"/>
     </row>
     <row r="30" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
-        <v>44054</v>
+        <v>44065</v>
       </c>
       <c r="B30" s="7" t="n">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="C30" s="7" t="n">
-        <f aca="false">B30-B31</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="7"/>
-      <c r="F30" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="F30" s="7"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
       <c r="O30" s="5" t="n">
         <f aca="false">IF(SUM(D30:N30)=C30,1,0)</f>
         <v>1</v>
@@ -1227,19 +1250,24 @@
     </row>
     <row r="31" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
-        <v>44052</v>
+        <v>44064</v>
       </c>
       <c r="B31" s="7" t="n">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="C31" s="7" t="n">
-        <f aca="false">B31-B32</f>
-        <v>2</v>
-      </c>
-      <c r="D31" s="7" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D31" s="7"/>
       <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="H31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
       <c r="O31" s="5" t="n">
         <f aca="false">IF(SUM(D31:N31)=C31,1,0)</f>
         <v>1</v>
@@ -1247,20 +1275,29 @@
     </row>
     <row r="32" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
-        <v>44051</v>
+        <v>44063</v>
       </c>
       <c r="B32" s="7" t="n">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="C32" s="7" t="n">
-        <f aca="false">B32-B33</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" s="7" t="n">
         <v>1</v>
       </c>
       <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="H32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8" t="n">
         <v>1</v>
       </c>
       <c r="O32" s="5" t="n">
@@ -1270,23 +1307,31 @@
     </row>
     <row r="33" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
-        <v>44048</v>
+        <v>44062</v>
       </c>
       <c r="B33" s="7" t="n">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="C33" s="7" t="n">
-        <f aca="false">B33-B34</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="7"/>
-      <c r="G33" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="F33" s="7"/>
       <c r="H33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" s="8"/>
+      <c r="K33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" s="8" t="n">
         <v>1</v>
       </c>
       <c r="O33" s="5" t="n">
@@ -1296,25 +1341,30 @@
     </row>
     <row r="34" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
-        <v>44046</v>
+        <v>44061</v>
       </c>
       <c r="B34" s="7" t="n">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C34" s="7" t="n">
-        <f aca="false">B34-B35</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" s="7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E34" s="7"/>
-      <c r="F34" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="F34" s="7"/>
       <c r="H34" s="5" t="n">
         <v>1</v>
       </c>
+      <c r="J34" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
       <c r="O34" s="5" t="n">
         <f aca="false">IF(SUM(D34:N34)=C34,1,0)</f>
         <v>1</v>
@@ -1322,18 +1372,31 @@
     </row>
     <row r="35" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
-        <v>44045</v>
+        <v>44060</v>
       </c>
       <c r="B35" s="7" t="n">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C35" s="7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D35" s="7" t="n">
         <v>1</v>
       </c>
       <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="H35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" s="8"/>
+      <c r="K35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" s="8"/>
       <c r="O35" s="5" t="n">
         <f aca="false">IF(SUM(D35:N35)=C35,1,0)</f>
         <v>1</v>
@@ -1341,18 +1404,29 @@
     </row>
     <row r="36" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
-        <v>44043</v>
+        <v>44059</v>
       </c>
       <c r="B36" s="7" t="n">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C36" s="7" t="n">
-        <v>2</v>
+        <f aca="false">B36-B37</f>
+        <v>4</v>
       </c>
       <c r="D36" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" s="7"/>
+      <c r="H36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="8"/>
+      <c r="J36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="O36" s="5" t="n">
         <f aca="false">IF(SUM(D36:N36)=C36,1,0)</f>
         <v>1</v>
@@ -1360,67 +1434,71 @@
     </row>
     <row r="37" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
-        <v>44042</v>
+        <v>44058</v>
       </c>
       <c r="B37" s="7" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C37" s="7" t="n">
         <f aca="false">B37-B38</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" s="7" t="n">
         <v>1</v>
       </c>
       <c r="E37" s="7"/>
+      <c r="I37" s="8"/>
+      <c r="K37" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="O37" s="5" t="n">
         <f aca="false">IF(SUM(D37:N37)=C37,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="38" s="5" customFormat="true" ht="35.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
-        <v>44039</v>
+        <v>44057</v>
       </c>
       <c r="B38" s="7" t="n">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C38" s="7" t="n">
         <f aca="false">B38-B39</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" s="7" t="n">
         <v>1</v>
       </c>
       <c r="E38" s="7"/>
-      <c r="K38" s="5" t="n">
+      <c r="F38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="5" t="n">
         <v>1</v>
       </c>
       <c r="O38" s="5" t="n">
         <f aca="false">IF(SUM(D38:N38)=C38,1,0)</f>
         <v>1</v>
       </c>
-      <c r="P38" s="9" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="39" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
-        <v>44038</v>
+        <v>44056</v>
       </c>
       <c r="B39" s="7" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C39" s="7" t="n">
         <f aca="false">B39-B40</f>
         <v>2</v>
       </c>
       <c r="D39" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O39" s="5" t="n">
         <f aca="false">IF(SUM(D39:N39)=C39,1,0)</f>
@@ -1429,19 +1507,22 @@
     </row>
     <row r="40" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
-        <v>44037</v>
+        <v>44054</v>
       </c>
       <c r="B40" s="7" t="n">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C40" s="7" t="n">
         <f aca="false">B40-B41</f>
         <v>1</v>
       </c>
       <c r="D40" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="7"/>
+      <c r="F40" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="O40" s="5" t="n">
         <f aca="false">IF(SUM(D40:N40)=C40,1,0)</f>
         <v>1</v>
@@ -1449,17 +1530,17 @@
     </row>
     <row r="41" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
-        <v>44035</v>
+        <v>44052</v>
       </c>
       <c r="B41" s="7" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C41" s="7" t="n">
         <f aca="false">B41-B42</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E41" s="7"/>
       <c r="O41" s="5" t="n">
@@ -1469,19 +1550,22 @@
     </row>
     <row r="42" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
-        <v>44034</v>
+        <v>44051</v>
       </c>
       <c r="B42" s="7" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C42" s="7" t="n">
         <f aca="false">B42-B43</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" s="7" t="n">
         <v>1</v>
       </c>
       <c r="E42" s="7"/>
+      <c r="H42" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="O42" s="5" t="n">
         <f aca="false">IF(SUM(D42:N42)=C42,1,0)</f>
         <v>1</v>
@@ -1489,19 +1573,25 @@
     </row>
     <row r="43" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
-        <v>44033</v>
+        <v>44048</v>
       </c>
       <c r="B43" s="7" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C43" s="7" t="n">
         <f aca="false">B43-B44</f>
         <v>2</v>
       </c>
       <c r="D43" s="7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E43" s="7"/>
+      <c r="G43" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="O43" s="5" t="n">
         <f aca="false">IF(SUM(D43:N43)=C43,1,0)</f>
         <v>1</v>
@@ -1509,19 +1599,25 @@
     </row>
     <row r="44" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
-        <v>44032</v>
+        <v>44046</v>
       </c>
       <c r="B44" s="7" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C44" s="7" t="n">
         <f aca="false">B44-B45</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" s="7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E44" s="7"/>
+      <c r="F44" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="O44" s="5" t="n">
         <f aca="false">IF(SUM(D44:N44)=C44,1,0)</f>
         <v>1</v>
@@ -1529,17 +1625,16 @@
     </row>
     <row r="45" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
-        <v>44029</v>
+        <v>44045</v>
       </c>
       <c r="B45" s="7" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C45" s="7" t="n">
-        <f aca="false">B45-B46</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D45" s="7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E45" s="7"/>
       <c r="O45" s="5" t="n">
@@ -1549,21 +1644,18 @@
     </row>
     <row r="46" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
-        <v>44027</v>
+        <v>44043</v>
       </c>
       <c r="B46" s="7" t="n">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C46" s="7" t="n">
-        <f aca="false">B46-B47</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="7" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E46" s="7"/>
       <c r="O46" s="5" t="n">
         <f aca="false">IF(SUM(D46:N46)=C46,1,0)</f>
         <v>1</v>
@@ -1571,17 +1663,17 @@
     </row>
     <row r="47" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
-        <v>44026</v>
+        <v>44042</v>
       </c>
       <c r="B47" s="7" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C47" s="7" t="n">
         <f aca="false">B47-B48</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" s="7"/>
       <c r="O47" s="5" t="n">
@@ -1589,41 +1681,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" s="5" customFormat="true" ht="35.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
-        <v>44025</v>
+        <v>44039</v>
       </c>
       <c r="B48" s="7" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C48" s="7" t="n">
         <f aca="false">B48-B49</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" s="7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E48" s="7"/>
+      <c r="K48" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="O48" s="5" t="n">
         <f aca="false">IF(SUM(D48:N48)=C48,1,0)</f>
         <v>1</v>
       </c>
+      <c r="P48" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="49" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
-        <v>44022</v>
+        <v>44038</v>
       </c>
       <c r="B49" s="7" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C49" s="7" t="n">
         <f aca="false">B49-B50</f>
         <v>2</v>
       </c>
       <c r="D49" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" s="7"/>
+      <c r="F49" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="O49" s="5" t="n">
         <f aca="false">IF(SUM(D49:N49)=C49,1,0)</f>
         <v>1</v>
@@ -1631,10 +1732,10 @@
     </row>
     <row r="50" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
-        <v>44018</v>
+        <v>44037</v>
       </c>
       <c r="B50" s="7" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C50" s="7" t="n">
         <f aca="false">B50-B51</f>
@@ -1651,21 +1752,19 @@
     </row>
     <row r="51" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
-        <v>44017</v>
+        <v>44035</v>
       </c>
       <c r="B51" s="7" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C51" s="7" t="n">
         <f aca="false">B51-B52</f>
         <v>3</v>
       </c>
       <c r="D51" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E51" s="7" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E51" s="7"/>
       <c r="O51" s="5" t="n">
         <f aca="false">IF(SUM(D51:N51)=C51,1,0)</f>
         <v>1</v>
@@ -1673,10 +1772,10 @@
     </row>
     <row r="52" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
-        <v>44015</v>
+        <v>44034</v>
       </c>
       <c r="B52" s="7" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C52" s="7" t="n">
         <f aca="false">B52-B53</f>
@@ -1693,43 +1792,37 @@
     </row>
     <row r="53" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
-        <v>44009</v>
+        <v>44033</v>
       </c>
       <c r="B53" s="7" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C53" s="7" t="n">
         <f aca="false">B53-B54</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" s="7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E53" s="7"/>
-      <c r="K53" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="O53" s="5" t="n">
         <f aca="false">IF(SUM(D53:N53)=C53,1,0)</f>
         <v>1</v>
       </c>
-      <c r="P53" s="7" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="54" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
-        <v>44008</v>
+        <v>44032</v>
       </c>
       <c r="B54" s="7" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C54" s="7" t="n">
         <f aca="false">B54-B55</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D54" s="7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E54" s="7"/>
       <c r="O54" s="5" t="n">
@@ -1739,22 +1832,19 @@
     </row>
     <row r="55" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
-        <v>43999</v>
+        <v>44029</v>
       </c>
       <c r="B55" s="7" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C55" s="7" t="n">
         <f aca="false">B55-B56</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D55" s="7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E55" s="7"/>
-      <c r="I55" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="O55" s="5" t="n">
         <f aca="false">IF(SUM(D55:N55)=C55,1,0)</f>
         <v>1</v>
@@ -1762,19 +1852,21 @@
     </row>
     <row r="56" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
-        <v>43984</v>
+        <v>44027</v>
       </c>
       <c r="B56" s="7" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C56" s="7" t="n">
         <f aca="false">B56-B57</f>
         <v>1</v>
       </c>
       <c r="D56" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="O56" s="5" t="n">
         <f aca="false">IF(SUM(D56:N56)=C56,1,0)</f>
         <v>1</v>
@@ -1782,17 +1874,17 @@
     </row>
     <row r="57" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
-        <v>43982</v>
+        <v>44026</v>
       </c>
       <c r="B57" s="7" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C57" s="7" t="n">
         <f aca="false">B57-B58</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" s="7"/>
       <c r="O57" s="5" t="n">
@@ -1802,17 +1894,17 @@
     </row>
     <row r="58" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
-        <v>43973</v>
+        <v>44025</v>
       </c>
       <c r="B58" s="7" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C58" s="7" t="n">
         <f aca="false">B58-B59</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D58" s="7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E58" s="7"/>
       <c r="O58" s="5" t="n">
@@ -1822,16 +1914,17 @@
     </row>
     <row r="59" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
-        <v>43940</v>
+        <v>44022</v>
       </c>
       <c r="B59" s="7" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C59" s="7" t="n">
-        <v>1</v>
+        <f aca="false">B59-B60</f>
+        <v>2</v>
       </c>
       <c r="D59" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59" s="7"/>
       <c r="O59" s="5" t="n">
@@ -1841,20 +1934,19 @@
     </row>
     <row r="60" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
-        <v>43920</v>
+        <v>44018</v>
       </c>
       <c r="B60" s="7" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C60" s="7" t="n">
+        <f aca="false">B60-B61</f>
         <v>1</v>
       </c>
       <c r="D60" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" s="7" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E60" s="7"/>
       <c r="O60" s="5" t="n">
         <f aca="false">IF(SUM(D60:N60)=C60,1,0)</f>
         <v>1</v>
@@ -1862,15 +1954,19 @@
     </row>
     <row r="61" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
-        <v>43919</v>
-      </c>
-      <c r="B61" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C61" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D61" s="5" t="n">
+        <v>44017</v>
+      </c>
+      <c r="B61" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="C61" s="7" t="n">
+        <f aca="false">B61-B62</f>
+        <v>3</v>
+      </c>
+      <c r="D61" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" s="7" t="n">
         <v>1</v>
       </c>
       <c r="O61" s="5" t="n">
@@ -1878,55 +1974,262 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2" t="n">
-        <f aca="false">SUM(C$5:C61)</f>
+    <row r="62" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="6" t="n">
+        <v>44015</v>
+      </c>
+      <c r="B62" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C62" s="7" t="n">
+        <f aca="false">B62-B63</f>
+        <v>1</v>
+      </c>
+      <c r="D62" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" s="7"/>
+      <c r="O62" s="5" t="n">
+        <f aca="false">IF(SUM(D62:N62)=C62,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="6" t="n">
+        <v>44009</v>
+      </c>
+      <c r="B63" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C63" s="7" t="n">
+        <f aca="false">B63-B64</f>
+        <v>1</v>
+      </c>
+      <c r="D63" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="K63" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O63" s="5" t="n">
+        <f aca="false">IF(SUM(D63:N63)=C63,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P63" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="6" t="n">
+        <v>44008</v>
+      </c>
+      <c r="B64" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C64" s="7" t="n">
+        <f aca="false">B64-B65</f>
+        <v>1</v>
+      </c>
+      <c r="D64" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" s="7"/>
+      <c r="O64" s="5" t="n">
+        <f aca="false">IF(SUM(D64:N64)=C64,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="6" t="n">
+        <v>43999</v>
+      </c>
+      <c r="B65" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C65" s="7" t="n">
+        <f aca="false">B65-B66</f>
+        <v>1</v>
+      </c>
+      <c r="D65" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" s="7"/>
+      <c r="I65" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O65" s="5" t="n">
+        <f aca="false">IF(SUM(D65:N65)=C65,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="6" t="n">
+        <v>43984</v>
+      </c>
+      <c r="B66" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C66" s="7" t="n">
+        <f aca="false">B66-B67</f>
+        <v>1</v>
+      </c>
+      <c r="D66" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" s="7"/>
+      <c r="O66" s="5" t="n">
+        <f aca="false">IF(SUM(D66:N66)=C66,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="6" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B67" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C67" s="7" t="n">
+        <f aca="false">B67-B68</f>
+        <v>1</v>
+      </c>
+      <c r="D67" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" s="7"/>
+      <c r="O67" s="5" t="n">
+        <f aca="false">IF(SUM(D67:N67)=C67,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="6" t="n">
+        <v>43973</v>
+      </c>
+      <c r="B68" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C68" s="7" t="n">
+        <f aca="false">B68-B69</f>
+        <v>1</v>
+      </c>
+      <c r="D68" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" s="7"/>
+      <c r="O68" s="5" t="n">
+        <f aca="false">IF(SUM(D68:N68)=C68,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="6" t="n">
+        <v>43940</v>
+      </c>
+      <c r="B69" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C69" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" s="7"/>
+      <c r="O69" s="5" t="n">
+        <f aca="false">IF(SUM(D69:N69)=C69,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="6" t="n">
+        <v>43920</v>
+      </c>
+      <c r="B70" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C70" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O70" s="5" t="n">
+        <f aca="false">IF(SUM(D70:N70)=C70,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="6" t="n">
+        <v>43919</v>
+      </c>
+      <c r="B71" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O71" s="5" t="n">
+        <f aca="false">IF(SUM(D71:N71)=C71,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2" t="n">
+        <f aca="false">SUM(C$15:C71)</f>
         <v>134</v>
       </c>
-      <c r="D62" s="2" t="n">
-        <f aca="false">SUM(D$5:D61)</f>
+      <c r="D72" s="2" t="n">
+        <f aca="false">SUM(D$15:D71)</f>
         <v>67</v>
       </c>
-      <c r="E62" s="2" t="n">
-        <f aca="false">SUM(E$5:E61)</f>
+      <c r="E72" s="2" t="n">
+        <f aca="false">SUM(E$15:E71)</f>
         <v>8</v>
       </c>
-      <c r="F62" s="2" t="n">
-        <f aca="false">SUM(F$5:F61)</f>
+      <c r="F72" s="2" t="n">
+        <f aca="false">SUM(F$15:F71)</f>
         <v>6</v>
       </c>
-      <c r="G62" s="2" t="n">
-        <f aca="false">SUM(G$5:G61)</f>
-        <v>3</v>
-      </c>
-      <c r="H62" s="2" t="n">
-        <f aca="false">SUM(H$5:H61)</f>
+      <c r="G72" s="2" t="n">
+        <f aca="false">SUM(G$15:G71)</f>
+        <v>3</v>
+      </c>
+      <c r="H72" s="2" t="n">
+        <f aca="false">SUM(H$15:H71)</f>
         <v>19</v>
       </c>
-      <c r="I62" s="2" t="n">
-        <f aca="false">SUM(I$5:I61)</f>
-        <v>1</v>
-      </c>
-      <c r="J62" s="2" t="n">
-        <f aca="false">SUM(J$5:J61)</f>
-        <v>2</v>
-      </c>
-      <c r="K62" s="2" t="n">
-        <f aca="false">SUM(K$5:K61)</f>
+      <c r="I72" s="2" t="n">
+        <f aca="false">SUM(I$15:I71)</f>
+        <v>1</v>
+      </c>
+      <c r="J72" s="2" t="n">
+        <f aca="false">SUM(J$15:J71)</f>
+        <v>2</v>
+      </c>
+      <c r="K72" s="2" t="n">
+        <f aca="false">SUM(K$15:K71)</f>
         <v>10</v>
       </c>
-      <c r="L62" s="2" t="n">
-        <f aca="false">SUM(L$5:L61)</f>
+      <c r="L72" s="2" t="n">
+        <f aca="false">SUM(L$15:L71)</f>
         <v>4</v>
       </c>
-      <c r="M62" s="2" t="n">
-        <f aca="false">SUM(M$5:M61)</f>
+      <c r="M72" s="2" t="n">
+        <f aca="false">SUM(M$15:M71)</f>
         <v>6</v>
       </c>
-      <c r="N62" s="2" t="n">
-        <f aca="false">SUM(N$5:N61)</f>
+      <c r="N72" s="2" t="n">
+        <f aca="false">SUM(N$15:N71)</f>
         <v>8</v>
       </c>
     </row>
